--- a/data-raw/mapping.xlsx
+++ b/data-raw/mapping.xlsx
@@ -1,26 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/legoupil_unhcr_org/Documents/Microsoft Teams Chat Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{824E2056-955F-4EA7-ADBF-A8A5460BA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="375" yWindow="570" windowWidth="19065" windowHeight="20265" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mapping_indicator_23" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mapping_indicator" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mapping_indicator_23" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping_indicator" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mapping_indicator!$C$1:$AA$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mapping_indicator!$D$1:$AB$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping_indicator_23!$C$1:$AA$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping_indicator_23!$C$1:$AA$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mapping_indicator!$C$1:$AA$48</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}</author>
+    <author>tc={35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Edouard Legoupil  along with the thresholds, I also updated the indicator names here to be the new wording. Thank you so much!</t>
+      </text>
+    </comment>
+    <comment ref="R34" authorId="1" shapeId="0" xr:uid="{35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This one is a bit weird. The standard is 50% but we don't necessarily want to go far above it in the same way as we don't want to go far below it...and in this region, we are very far above the threshold in many countries. Do you have any suggestion of how to manage that?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="368">
   <si>
     <t>Indicator</t>
   </si>
@@ -28,7 +76,7 @@
     <t>Indicator_lab2</t>
   </si>
   <si>
-    <t xml:space="preserve">Area of work</t>
+    <t>Area of work</t>
   </si>
   <si>
     <t>theme</t>
@@ -103,16 +151,16 @@
     <t>max</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 Proportion of individuals seeking international protection who are able to access asylum procedures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of individuals seeking international protection who are able to access asylum procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refugee Status Determination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection / Case Management</t>
+    <t>1.1 Proportion of individuals seeking international protection who are able to access asylum procedures.</t>
+  </si>
+  <si>
+    <t>Proportion of individuals seeking international protection who are able to access asylum procedures</t>
+  </si>
+  <si>
+    <t>Refugee Status Determination</t>
+  </si>
+  <si>
+    <t>Protection / Case Management</t>
   </si>
   <si>
     <t>Impact</t>
@@ -121,7 +169,7 @@
     <t>IA1</t>
   </si>
   <si>
-    <t xml:space="preserve">IA1: Protect</t>
+    <t>IA1: Protect</t>
   </si>
   <si>
     <t>Percent</t>
@@ -136,28 +184,28 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2 Proportion of PoC who are able to move freely within the country of habitual residence. [GCR 2.1.2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who are able to move freely within the country of habitual residence (GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection / Legal</t>
+    <t>1.2 Proportion of PoC who are able to move freely within the country of habitual residence. [GCR 2.1.2]</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who are able to move freely within the country of habitual residence (GCR)</t>
+  </si>
+  <si>
+    <t>Freedom of Movement</t>
+  </si>
+  <si>
+    <t>Protection / Legal</t>
   </si>
   <si>
     <t>C_IMP_002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3 Number of persons who are reported refouled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons who are reported refouled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to Territory, Non-refoulement</t>
+    <t>1.3 Number of persons who are reported refouled</t>
+  </si>
+  <si>
+    <t>Number of persons who are reported refouled</t>
+  </si>
+  <si>
+    <t>Access to Territory, Non-refoulement</t>
   </si>
   <si>
     <t>Number</t>
@@ -169,22 +217,22 @@
     <t>No_standard</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1 Proportion of PoC living below the national poverty line. [GCR 2.1.1 and SDG 1.2.1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC living below the national poverty line (SDG &amp; GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livelihoods &amp; Economic Inclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistance &amp; Inclusion</t>
+    <t>2.1 Proportion of PoC living below the national poverty line. [GCR 2.1.1 and SDG 1.2.1]</t>
+  </si>
+  <si>
+    <t>Proportion of PoC living below the national poverty line (SDG &amp; GCR)</t>
+  </si>
+  <si>
+    <t>Livelihoods &amp; Economic Inclusion</t>
+  </si>
+  <si>
+    <t>Assistance &amp; Inclusion</t>
   </si>
   <si>
     <t>IA2</t>
   </si>
   <si>
-    <t xml:space="preserve">IA2: Assist</t>
+    <t>IA2: Assist</t>
   </si>
   <si>
     <t>C_IMP_004</t>
@@ -193,10 +241,10 @@
     <t>less_or_equal</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
+    <t>2.2 Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
+  </si>
+  <si>
+    <t>Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
   </si>
   <si>
     <t>Shelter</t>
@@ -208,10 +256,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 Proportion of PoC with access to health services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoCs with access to health services (SDG)</t>
+    <t>2.3 Proportion of PoC with access to health services</t>
+  </si>
+  <si>
+    <t>Proportion of PoCs with access to health services (SDG)</t>
   </si>
   <si>
     <t>Health</t>
@@ -220,25 +268,25 @@
     <t>C_IMP_006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1 Proportion of PoC who have the right to decent work [GCR, 2.1.1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who have the right to work (GCR)</t>
+    <t>3.1 Proportion of PoC who have the right to decent work [GCR, 2.1.1]</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who have the right to work (GCR)</t>
   </si>
   <si>
     <t>IA3</t>
   </si>
   <si>
-    <t xml:space="preserve">IA3: Empower</t>
+    <t>IA3: Empower</t>
   </si>
   <si>
     <t>C_IMP_007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2a Proportion of PoC enrolled in primary education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC enrolled in primary education (SDG &amp; GCR)</t>
+    <t>3.2a Proportion of PoC enrolled in primary education</t>
+  </si>
+  <si>
+    <t>Proportion of PoC enrolled in primary education (SDG &amp; GCR)</t>
   </si>
   <si>
     <t>Education</t>
@@ -253,10 +301,10 @@
     <t>C_IMP_008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2b Proportion of PoC enrolled in secondary education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC enrolled in secondary education (SDG &amp; GCR)</t>
+    <t>3.2b Proportion of PoC enrolled in secondary education</t>
+  </si>
+  <si>
+    <t>Proportion of PoC enrolled in secondary education (SDG &amp; GCR)</t>
   </si>
   <si>
     <t>3.2b</t>
@@ -265,10 +313,10 @@
     <t>C_IMP_009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3 Proportion of PoC feeling safe walking alone in their neighborhood (related SDG 16.1.4).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoCs feeling safe walking alone in their neighborhood (SDG)</t>
+    <t>3.3 Proportion of PoC feeling safe walking alone in their neighborhood (related SDG 16.1.4).</t>
+  </si>
+  <si>
+    <t>Proportion of PoCs feeling safe walking alone in their neighborhood (SDG)</t>
   </si>
   <si>
     <t>Security</t>
@@ -277,13 +325,13 @@
     <t>C_IMP_010</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1 Number of refugees who voluntarily return in safety and dignity to their country of origin. [RF/GCR 4.2.1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of refugees who voluntarily return in safety and dignity to their country of origin (GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voluntary Repatriation</t>
+    <t>4.1 Number of refugees who voluntarily return in safety and dignity to their country of origin. [RF/GCR 4.2.1]</t>
+  </si>
+  <si>
+    <t>Number of refugees who voluntarily return in safety and dignity to their country of origin (GCR)</t>
+  </si>
+  <si>
+    <t>Voluntary Repatriation</t>
   </si>
   <si>
     <t>IA4</t>
@@ -292,16 +340,16 @@
     <t>C_IMP_011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2a Number of PoC who departed on resettlement. [GCR 3.1.1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of refugees who departed on resettlement opportunities</t>
+    <t>4.2a Number of PoC who departed on resettlement. [GCR 3.1.1]</t>
+  </si>
+  <si>
+    <t>Number of refugees who departed on resettlement opportunities</t>
   </si>
   <si>
     <t>Resettlement</t>
   </si>
   <si>
-    <t xml:space="preserve">IA4: Solve</t>
+    <t>IA4: Solve</t>
   </si>
   <si>
     <t>4.2a</t>
@@ -313,13 +361,13 @@
     <t>total(RST)</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2b Number of PoC who departed through complementary pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of PoC who departed through complementary pathways (GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementary Pathways</t>
+    <t>4.2b Number of PoC who departed through complementary pathways</t>
+  </si>
+  <si>
+    <t>Number of PoC who departed through complementary pathways (GCR)</t>
+  </si>
+  <si>
+    <t>Complementary Pathways</t>
   </si>
   <si>
     <t xml:space="preserve">Protection / Case Management </t>
@@ -331,10 +379,10 @@
     <t>C_IMP_013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3a Number of stateless persons for whom nationality is granted or confirmed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of stateless persons for whom nationality is granted or confirmed</t>
+    <t>4.3a Number of stateless persons for whom nationality is granted or confirmed.</t>
+  </si>
+  <si>
+    <t>Number of stateless persons for whom nationality is granted or confirmed</t>
   </si>
   <si>
     <t>Statelessness</t>
@@ -349,10 +397,10 @@
     <t>popdata</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3b Number of refugees for whom residency status is granted or confirmed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of refugees for whom residency status is granted or confirmed</t>
+    <t>4.3b Number of refugees for whom residency status is granted or confirmed.</t>
+  </si>
+  <si>
+    <t>Number of refugees for whom residency status is granted or confirmed</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -367,10 +415,10 @@
     <t>total(naturalisation)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 Proportion of refugees and asylum seekers registered on an individual basis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of refugees and asylum seekers registered on an individual basis</t>
+    <t>1.1 Proportion of refugees and asylum seekers registered on an individual basis.</t>
+  </si>
+  <si>
+    <t>Proportion of refugees and asylum seekers registered on an individual basis</t>
   </si>
   <si>
     <t>Registration</t>
@@ -382,16 +430,16 @@
     <t>OA1</t>
   </si>
   <si>
-    <t xml:space="preserve">OA1: Access/Doc</t>
+    <t>OA1: Access/Doc</t>
   </si>
   <si>
     <t>C_OUT_001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority. [SDG 16.9.1 - Tier 1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of children under 5 years of age whose births have been registered with a civil authority (SDG)</t>
+    <t>1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority. [SDG 16.9.1 - Tier 1]</t>
+  </si>
+  <si>
+    <t>Proportion of children under 5 years of age whose births have been registered with a civil authority (SDG)</t>
   </si>
   <si>
     <t>C_OUT_002</t>
@@ -400,25 +448,25 @@
     <t>demographic(under5)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3 Proportion of PoC with legally recognized identity documents or credentials [GCR 4.2.2].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC with legally recognized identity documents or credentials (GCR)</t>
+    <t>1.3 Proportion of PoC with legally recognized identity documents or credentials [GCR 4.2.2].</t>
+  </si>
+  <si>
+    <t>Proportion of PoC with legally recognized identity documents or credentials (GCR)</t>
   </si>
   <si>
     <t>C_OUT_003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1 Average processing time (in days) from registration to first instance asylum decision (disaggregated by individual and group procedures).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average processing time (in days) from registration to first instance asylum decision</t>
+    <t>2.1 Average processing time (in days) from registration to first instance asylum decision (disaggregated by individual and group procedures).</t>
+  </si>
+  <si>
+    <t>Average processing time (in days) from registration to first instance asylum decision</t>
   </si>
   <si>
     <t>OA2</t>
   </si>
   <si>
-    <t xml:space="preserve">OA2: Status</t>
+    <t>OA2: Status</t>
   </si>
   <si>
     <t>Average</t>
@@ -427,10 +475,10 @@
     <t>C_OUT_004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Proportion of individuals undergoing asylum procedures who have access to legal advice or representation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of individuals undergoing asylum procedures who have access to legal advice or representation</t>
+    <t>2.2 Proportion of individuals undergoing asylum procedures who have access to legal advice or representation.</t>
+  </si>
+  <si>
+    <t>Proportion of individuals undergoing asylum procedures who have access to legal advice or representation</t>
   </si>
   <si>
     <t>C_OUT_005</t>
@@ -439,28 +487,28 @@
     <t>total_ASY</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
+    <t>2.3 Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim.</t>
+  </si>
+  <si>
+    <t>Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
   </si>
   <si>
     <t>C_OUT_006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1 Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law &amp; Policy</t>
+    <t>3.1 Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol.</t>
+  </si>
+  <si>
+    <t>Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol</t>
+  </si>
+  <si>
+    <t>Law &amp; Policy</t>
   </si>
   <si>
     <t>OA3</t>
   </si>
   <si>
-    <t xml:space="preserve">OA3: Policy/Law</t>
+    <t>OA3: Policy/Law</t>
   </si>
   <si>
     <t>Text</t>
@@ -469,169 +517,169 @@
     <t>C_OUT_007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
+    <t>3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness.</t>
+  </si>
+  <si>
+    <t>Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
   </si>
   <si>
     <t>C_OUT_008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1 Proportion of PoC who know where to access available GBV services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who know where to access available GBV services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender-Based Violence</t>
+    <t>4.1 Proportion of PoC who know where to access available GBV services</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who know where to access available GBV services</t>
+  </si>
+  <si>
+    <t>Gender-Based Violence</t>
   </si>
   <si>
     <t>OA4</t>
   </si>
   <si>
-    <t xml:space="preserve">OA4: GBV</t>
+    <t>OA4: GBV</t>
   </si>
   <si>
     <t>C_OUT_009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2 Proportion of POCs who do not accept violence against women.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who do not accept violence against women</t>
+    <t>4.2 Proportion of POCs who do not accept violence against women.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who do not accept violence against women</t>
   </si>
   <si>
     <t>C_OUT_010</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3 Proportion of survivors who are satisfied with SGBV case management services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of survivors who are satisfied with GBV case management services</t>
+    <t>4.3 Proportion of survivors who are satisfied with SGBV case management services.</t>
+  </si>
+  <si>
+    <t>Proportion of survivors who are satisfied with GBV case management services</t>
   </si>
   <si>
     <t>C_OUT_011</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child Protection</t>
+    <t>5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure.</t>
+  </si>
+  <si>
+    <t>Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
+  </si>
+  <si>
+    <t>Child Protection</t>
   </si>
   <si>
     <t>OA5</t>
   </si>
   <si>
-    <t xml:space="preserve">OA5: Children</t>
+    <t>OA5: Children</t>
   </si>
   <si>
     <t>C_OUT_012</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2 Proportion of children who participate in community-based child protection programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of children who participate in community-based child protection programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child Protection, Community-Based Protection</t>
+    <t>5.2 Proportion of children who participate in community-based child protection programmes</t>
+  </si>
+  <si>
+    <t>Proportion of children who participate in community-based child protection programmes</t>
+  </si>
+  <si>
+    <t>Child Protection, Community-Based Protection</t>
   </si>
   <si>
     <t>C_OUT_013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3 Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
+    <t>5.3 Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
+  </si>
+  <si>
+    <t>Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
   </si>
   <si>
     <t>C_OUT_014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1 Number of PoC arrested or detained related to immigration control or legal status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of PoC arrested or detained related to immigration control or legal status</t>
+    <t>6.1 Number of PoC arrested or detained related to immigration control or legal status</t>
+  </si>
+  <si>
+    <t>Number of PoC arrested or detained related to immigration control or legal status</t>
   </si>
   <si>
     <t>OA6</t>
   </si>
   <si>
-    <t xml:space="preserve">OA6: Justice</t>
+    <t>OA6: Justice</t>
   </si>
   <si>
     <t>C_OUT_015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1 Proportion of PoC who participate meaningfully across all phases of the OMC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who participate meaningfully across all phases of the OMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accountability to Affected Populations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community-Based Protection &amp; Accountability to Affected Populations</t>
+    <t>7.1 Proportion of PoC who participate meaningfully across all phases of the OMC.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who participate meaningfully across all phases of the OMC</t>
+  </si>
+  <si>
+    <t>Accountability to Affected Populations</t>
+  </si>
+  <si>
+    <t>Community-Based Protection &amp; Accountability to Affected Populations</t>
   </si>
   <si>
     <t>OA7</t>
   </si>
   <si>
-    <t xml:space="preserve">OA7: Community</t>
+    <t>OA7: Community</t>
   </si>
   <si>
     <t>C_OUT_016</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2 Proportion of PoC who have access to effective feedback and response mechanisms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who have access to effective feedback and response mechanisms</t>
+    <t>7.2 Proportion of PoC who have access to effective feedback and response mechanisms.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who have access to effective feedback and response mechanisms</t>
   </si>
   <si>
     <t>C_OUT_017</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3 Proportion (and number) of active female participants on leadership/management structures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion (and number) of active female participants on leadership/management structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Structures</t>
+    <t>7.3 Proportion (and number) of active female participants on leadership/management structures.</t>
+  </si>
+  <si>
+    <t>Proportion (and number) of active female participants on leadership/management structures</t>
+  </si>
+  <si>
+    <t>Community Structures</t>
   </si>
   <si>
     <t>C_OUT_018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1 Proportion of PoC in need that receive cash transfers or in-kind assistance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC in need that receive cash transfers or in-kind assistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Needs</t>
+    <t>8.1 Proportion of PoC in need that receive cash transfers or in-kind assistance.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC in need that receive cash transfers or in-kind assistance</t>
+  </si>
+  <si>
+    <t>Basic Needs</t>
   </si>
   <si>
     <t>OA8</t>
   </si>
   <si>
-    <t xml:space="preserve">OA8: Well-being</t>
+    <t>OA8: Well-being</t>
   </si>
   <si>
     <t>C_OUT_019</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2 Proportion of PoC with primary reliance on clean (cooking) fuels and technology [SDG 7.1.2 Tier 1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC with primary reliance on clean (cooking) fuels and technology (SDG)</t>
+    <t>8.2 Proportion of PoC with primary reliance on clean (cooking) fuels and technology [SDG 7.1.2 Tier 1]</t>
+  </si>
+  <si>
+    <t>Proportion of PoC with primary reliance on clean (cooking) fuels and technology (SDG)</t>
   </si>
   <si>
     <t>Energy</t>
@@ -640,196 +688,487 @@
     <t>C_OUT_020</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1 Proportion of PoCs living in habitable and affordable housing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC living in habitable and affordable housing</t>
+    <t>9.1 Proportion of PoCs living in habitable and affordable housing.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC living in habitable and affordable housing</t>
   </si>
   <si>
     <t>OA9</t>
   </si>
   <si>
-    <t xml:space="preserve">OA9: Housing</t>
+    <t>OA9: Housing</t>
   </si>
   <si>
     <t>C_OUT_021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2 Proportion of PoC that have energy to ensure lighting (close to Sphere).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC that have energy to ensure lighting</t>
+    <t>9.2 Proportion of PoC that have energy to ensure lighting (close to Sphere).</t>
+  </si>
+  <si>
+    <t>Proportion of PoC that have energy to ensure lighting</t>
   </si>
   <si>
     <t>C_OUT_022</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1 Proportion of children aged 9 months to five years who have received measles vaccination.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of children aged 9 months to 5 years who have received measles vaccination</t>
+    <t>10.1 Proportion of children aged 9 months to five years who have received measles vaccination.</t>
+  </si>
+  <si>
+    <t>Proportion of children aged 9 months to 5 years who have received measles vaccination</t>
   </si>
   <si>
     <t>OA10</t>
   </si>
   <si>
-    <t xml:space="preserve">OA10: Health</t>
+    <t>OA10: Health</t>
   </si>
   <si>
     <t>C_OUT_023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2. Proportion of births attended by skilled health personnel. [SDG 3.1.2 Tier 1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of births attended by skilled health personnel (SDG)</t>
+    <t>10.2. Proportion of births attended by skilled health personnel. [SDG 3.1.2 Tier 1]</t>
+  </si>
+  <si>
+    <t>Proportion of births attended by skilled health personnel (SDG)</t>
   </si>
   <si>
     <t>C_OUT_024</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1 Proportion of PoC enrolled in tertiary and higher education.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC enrolled in tertiary and higher education</t>
+    <t>11.1 Proportion of PoC enrolled in tertiary and higher education.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC enrolled in tertiary and higher education</t>
   </si>
   <si>
     <t>OA11</t>
   </si>
   <si>
-    <t xml:space="preserve">OA11: Education</t>
+    <t>OA11: Education</t>
   </si>
   <si>
     <t>C_OUT_025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2 Proportion of PoC enrolled in the national education system. [GCR 2.2.1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC enrolled in the national education system</t>
+    <t>11.2 Proportion of PoC enrolled in the national education system. [GCR 2.2.1]</t>
+  </si>
+  <si>
+    <t>Proportion of PoC enrolled in the national education system</t>
   </si>
   <si>
     <t>C_OUT_026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1 Proportion of PoC using at least basic drinking water services [linked to SDG 6.1.1].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC using at least basic drinking water services (SDG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation &amp; Hygiene</t>
+    <t>12.1 Proportion of PoC using at least basic drinking water services [linked to SDG 6.1.1].</t>
+  </si>
+  <si>
+    <t>Proportion of PoC using at least basic drinking water services (SDG)</t>
+  </si>
+  <si>
+    <t>Water, Sanitation &amp; Hygiene</t>
   </si>
   <si>
     <t>OA12</t>
   </si>
   <si>
-    <t xml:space="preserve">OA12: WASH</t>
+    <t>OA12: WASH</t>
   </si>
   <si>
     <t>C_OUT_027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2 Proportion of PoC with access to a safe household toilet [linked to SDG 6.2.1].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC with access to a safe household toilet (SDG)</t>
+    <t>12.2 Proportion of PoC with access to a safe household toilet [linked to SDG 6.2.1].</t>
+  </si>
+  <si>
+    <t>Proportion of PoC with access to a safe household toilet (SDG)</t>
   </si>
   <si>
     <t>C_OUT_028</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1. Proportion of PoC with an account at a bank or other financial institution or with a mobile-money-service provider [SDG 8.10.2 Tier 1].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC with an account at a bank or other financial institution or with a mobile-money provider (SDG)</t>
+    <t>13.1. Proportion of PoC with an account at a bank or other financial institution or with a mobile-money-service provider [SDG 8.10.2 Tier 1].</t>
+  </si>
+  <si>
+    <t>Proportion of PoC with an account at a bank or other financial institution or with a mobile-money provider (SDG)</t>
   </si>
   <si>
     <t>OA13</t>
   </si>
   <si>
-    <t xml:space="preserve">OA13 Livelihood</t>
+    <t>OA13 Livelihood</t>
   </si>
   <si>
     <t>C_OUT_029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2. Proportion of PoC who self-report positive changes in their income compared to previous year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC who self-report positive changes in their income compared to the prevoius year</t>
+    <t>13.2. Proportion of PoC who self-report positive changes in their income compared to previous year.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC who self-report positive changes in their income compared to the prevoius year</t>
   </si>
   <si>
     <t>C_OUT_030</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3 Proportion of PoC (working age) who are unemployed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of PoC (working age) who are unemployed (SDG)</t>
+    <t>13.3 Proportion of PoC (working age) who are unemployed.</t>
+  </si>
+  <si>
+    <t>Proportion of PoC (working age) who are unemployed (SDG)</t>
   </si>
   <si>
     <t>C_OUT_031</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1 Proportion of returnees with legally recognized identity documents or credentials [GCR 4.2.2].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of returnees with legally recognized identity documents or credentials (GCR)</t>
+    <t>14.1 Proportion of returnees with legally recognized identity documents or credentials [GCR 4.2.2].</t>
+  </si>
+  <si>
+    <t>Proportion of returnees with legally recognized identity documents or credentials (GCR)</t>
   </si>
   <si>
     <t>OA14</t>
   </si>
   <si>
-    <t xml:space="preserve">OA14: Return</t>
+    <t>OA14: Return</t>
   </si>
   <si>
     <t>C_OUT_032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1 Extent participation of displaced and stateless people across programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extent participation of displaced and stateless people across programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1 Number of refugees submitted by UNHCR for resettlement.</t>
+    <t>indic_short</t>
+  </si>
+  <si>
+    <t>1.1 Proportion of people seeking international protection who are able to access asylum procedures</t>
+  </si>
+  <si>
+    <t>Pro_AS_Acc</t>
+  </si>
+  <si>
+    <t>1.2 Proportion of people who are able to move freely within the country of habitual residence</t>
+  </si>
+  <si>
+    <t>Pro_PoC_Move</t>
+  </si>
+  <si>
+    <t>Num_Refouled</t>
+  </si>
+  <si>
+    <t>2.1 Proportion of people living below the national poverty line</t>
+  </si>
+  <si>
+    <t>Pro_PoC_Pov</t>
+  </si>
+  <si>
+    <t>2.2 Proportion of people residing in physically safe and secure settlements with access to basic facilities</t>
+  </si>
+  <si>
+    <t>Pro_PoC_Safe</t>
+  </si>
+  <si>
+    <t>2.3 Proportion of people with access to health services</t>
+  </si>
+  <si>
+    <t>Pro_PoC_Health</t>
+  </si>
+  <si>
+    <t>3.1 Proportion of people who have the right to decent work</t>
+  </si>
+  <si>
+    <t>Pro_PoC_Work</t>
+  </si>
+  <si>
+    <t>3.2a Proportion of children and young people enrolled in primary education</t>
+  </si>
+  <si>
+    <t>Pro_Pri_Edu</t>
+  </si>
+  <si>
+    <t>3.2b Proportion of children and young people enrolled in secondary education</t>
+  </si>
+  <si>
+    <t>Pro_Sec_Edu</t>
+  </si>
+  <si>
+    <t>3.3 Proportion of people that feel safe walking alone in their neighbourhood after dark</t>
+  </si>
+  <si>
+    <t>Pro_Safe_Nbr</t>
+  </si>
+  <si>
+    <t>4.1 Number of refugees who return voluntarily and in safety and dignity to their country of origin</t>
+  </si>
+  <si>
+    <t>Num_Returns</t>
+  </si>
+  <si>
+    <t>4.2a Number of refugees who departed on resettlement opportunities</t>
+  </si>
+  <si>
+    <t>Num_Resettled</t>
+  </si>
+  <si>
+    <t>4.2b Number of people who departed through complementary pathways</t>
+  </si>
+  <si>
+    <t>Num_Complement</t>
+  </si>
+  <si>
+    <t>4.3a Number of stateless persons for whom nationality is granted or confirmed</t>
+  </si>
+  <si>
+    <t>Num_Stateless</t>
+  </si>
+  <si>
+    <t>4.3b Number of refugees for whom residency status is granted or confirmed</t>
+  </si>
+  <si>
+    <t>Num_Residents</t>
+  </si>
+  <si>
+    <t>1.1 Proportion of refugees and asylum-seekers registered on an individual basis</t>
+  </si>
+  <si>
+    <t>Pro_Ind_Reg</t>
+  </si>
+  <si>
+    <t>1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority</t>
+  </si>
+  <si>
+    <t>Pro_Ch_Birth</t>
+  </si>
+  <si>
+    <t>1.3 Proportion of people with legally recognized identity documents or credentials</t>
+  </si>
+  <si>
+    <t>Pro_PoC_ID</t>
+  </si>
+  <si>
+    <t>2.1 Average processing time (in days) from registration to first instance asylum decision</t>
+  </si>
+  <si>
+    <t>Avg_Proc_Tim</t>
+  </si>
+  <si>
+    <t>2.2  Proportion of people undergoing asylum procedures who have access to legal representation</t>
+  </si>
+  <si>
+    <t>Pro_Leg_Adv</t>
+  </si>
+  <si>
+    <t>2.3 Proportion of people undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
+  </si>
+  <si>
+    <t>Pro_Eff_Appeal</t>
+  </si>
+  <si>
+    <t>3.1 Extent national legal framework is in line with the 1951 Convention</t>
+  </si>
+  <si>
+    <t>Ext_Conv_1951</t>
+  </si>
+  <si>
+    <t>3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
+  </si>
+  <si>
+    <t>Ext_Conv_1961</t>
+  </si>
+  <si>
+    <t>4.1 Proportion of people who know where to access available GBV services</t>
+  </si>
+  <si>
+    <t>Pro_GBVS_Acc</t>
+  </si>
+  <si>
+    <t>4.2 Proportion of people who do not accept violence against women</t>
+  </si>
+  <si>
+    <t>Pro_No_VAW</t>
+  </si>
+  <si>
+    <t>4.3 Proportion of people who are satisfied with GBV case management service</t>
+  </si>
+  <si>
+    <t>Pro_SGBV_Sat</t>
+  </si>
+  <si>
+    <t>5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
+  </si>
+  <si>
+    <t>Pro_Ch_Best</t>
+  </si>
+  <si>
+    <t>Pro_Ch_Comm</t>
+  </si>
+  <si>
+    <t>5.3 Proportion of unaccompanied and separated children who are in an alternative care arrangement</t>
+  </si>
+  <si>
+    <t>Pro_Ch_Care</t>
+  </si>
+  <si>
+    <t>6.1 Number of people arrested or detained related to immigration control or legal status</t>
+  </si>
+  <si>
+    <t>Num_Imm_Arrests</t>
+  </si>
+  <si>
+    <t>7.1 Extent participation of displaced and stateless people across programme phases is supported</t>
+  </si>
+  <si>
+    <t>Ext_Prog_Part</t>
+  </si>
+  <si>
+    <t>Extent participation of displaced and stateless people across programme</t>
+  </si>
+  <si>
+    <t>7.2 Proportion of people who have access to safe feedback and response mechanisms</t>
+  </si>
+  <si>
+    <t>Pro_Fdbk_Acc</t>
+  </si>
+  <si>
+    <t>7.3 Proportion of women participating in leadership/management structures</t>
+  </si>
+  <si>
+    <t>Pro_Fem_Ldrshp</t>
+  </si>
+  <si>
+    <t>8.1 Proportion of people that receive cash transfers and/or non-food items</t>
+  </si>
+  <si>
+    <t>Pro_Aid_Rec</t>
+  </si>
+  <si>
+    <t>8.2 Proportion of people with primary reliance on clean (cooking) fuels and technology</t>
+  </si>
+  <si>
+    <t>Pro_Clean_Fuel</t>
+  </si>
+  <si>
+    <t>9.1 Proportion of people living in habitable and affordable housing</t>
+  </si>
+  <si>
+    <t>Pro_Hab_House</t>
+  </si>
+  <si>
+    <t>9.2 Proportion of people that have energy to ensure lighting</t>
+  </si>
+  <si>
+    <t>Pro_Energy_Acc</t>
+  </si>
+  <si>
+    <t>10.1 Proportion of children aged 9 months to five years who have received measles vaccination</t>
+  </si>
+  <si>
+    <t>Pro_Meas_Vac</t>
+  </si>
+  <si>
+    <t>10.2. Proportion of births attended by skilled health personnel</t>
+  </si>
+  <si>
+    <t>Pro_Birth_Att</t>
+  </si>
+  <si>
+    <t>11.1 Proportion of young people enrolled in tertiary and higher education</t>
+  </si>
+  <si>
+    <t>Pro_Ter_Edu</t>
+  </si>
+  <si>
+    <t>11.2 Proportion of children and young people enrolled in the national education system</t>
+  </si>
+  <si>
+    <t>Pro_Nat_Edu</t>
+  </si>
+  <si>
+    <t>12.1 Proportion of people using at least basic drinking water services</t>
+  </si>
+  <si>
+    <t>Pro_Basic_Wat</t>
+  </si>
+  <si>
+    <t>12.2 Proportion of people with access to a safe household toilet</t>
+  </si>
+  <si>
+    <t>Pro_Safe_Toi</t>
+  </si>
+  <si>
+    <t>13.1 Proportion of people with an account at a bank or other financial institution or with a mobile-money-service provider</t>
+  </si>
+  <si>
+    <t>Pro_Bank_Acc</t>
+  </si>
+  <si>
+    <t>13.2 Proportion of people who self-report positive changes in their income compared to previous year</t>
+  </si>
+  <si>
+    <t>Pro_Pos_Inc</t>
+  </si>
+  <si>
+    <t>13.3 Proportion of people (working age) who are unemployed</t>
+  </si>
+  <si>
+    <t>Pro_Unemp</t>
+  </si>
+  <si>
+    <t>14.1 Proportion of returnees with legally recognized identity documents or credentials</t>
+  </si>
+  <si>
+    <t>Pro_Return_ID</t>
+  </si>
+  <si>
+    <t>15.1 Number of refugees submitted for resettlement by UNHCR</t>
+  </si>
+  <si>
+    <t>Num_Res_Sub</t>
   </si>
   <si>
     <t>OA15</t>
   </si>
   <si>
-    <t xml:space="preserve">OA15: Resettlement</t>
+    <t>OA15: Resettlement</t>
   </si>
   <si>
     <t>C_OUT_034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2 Average processing time from resettlement submission to departure under normal priority.</t>
+    <t>15.2 Average processing time from resettlement submission to departure</t>
+  </si>
+  <si>
+    <t>Avg_Res_Tim</t>
   </si>
   <si>
     <t>C_OUT_035</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3 Number of PoC admitted through complementary pathways from the host country.</t>
+    <t>15.3 Number of people admitted through complementary pathways from the host country</t>
+  </si>
+  <si>
+    <t>Num_Comp_Path</t>
   </si>
   <si>
     <t>C_OUT_036</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1. Proportion of PoC with secure tenure rights and/or property rights to housing and/or land [revised SDG indicator 1.4.2].</t>
+    <t>16.1 Proportion of people with secure tenure rights to housing and/or land</t>
+  </si>
+  <si>
+    <t>Pro_Tenure_Rights</t>
   </si>
   <si>
     <t>OA16</t>
   </si>
   <si>
-    <t xml:space="preserve">OA16: Integrate</t>
+    <t>OA16: Integrate</t>
   </si>
   <si>
     <t>C_OUT_037</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2. Proportion of PoC covered by social protection floors/systems [SDG 1.3.1].</t>
+    <t>16.2 Proportion of people covered by national social protection systems</t>
+  </si>
+  <si>
+    <t>Pro_Soc_Prot</t>
   </si>
   <si>
     <t>C_OUT_038</t>
@@ -838,73 +1177,116 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.000000"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="2"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Lato"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Lato"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,9 +1333,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFC6EFCE"/>
@@ -986,11 +1365,11 @@
   </fills>
   <borders count="8">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1005,7 +1384,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1020,7 +1399,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1035,7 +1414,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1050,7 +1429,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1062,8 +1441,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1072,483 +1451,408 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
-    <xf fontId="6" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="7" fillId="11" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="11" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="10" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="12" borderId="2" numFmtId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="13" borderId="2" numFmtId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="14" borderId="2" numFmtId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="6" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="6" borderId="7" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="6" borderId="2" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="6" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="8" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+  <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
-    <cellStyle name="Warning Text" xfId="8" builtinId="11"/>
-    <cellStyle name="Good" xfId="9" builtinId="26"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="8" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="7" builtinId="11"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Edouard Legoupil" id="{971F74F5-8F9E-4DC0-B13E-4795C0DBF105}" userId="legoupil@unhcr.org" providerId="PeoplePicker"/>
+  <person displayName="Regina Saavedra" id="{768B8EC0-D4F2-43B9-9342-3DD001A9E101}" userId="S::saavedra@unhcr.org::3890f5d1-20b0-4548-94a4-4b53e87baefd" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1751,25 +2055,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-04-08T10:19:52.38" personId="{768B8EC0-D4F2-43B9-9342-3DD001A9E101}" id="{DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}">
+    <text>@Edouard Legoupil  along with the thresholds, I also updated the indicator names here to be the new wording. Thank you so much!</text>
+    <mentions>
+      <mention mentionpersonId="{971F74F5-8F9E-4DC0-B13E-4795C0DBF105}" mentionId="{5DCB4DD8-29EE-48EC-A4A5-ED551491EB8F}" startIndex="0" length="17"/>
+    </mentions>
+  </threadedComment>
+  <threadedComment ref="R34" dT="2024-04-08T09:29:44.61" personId="{768B8EC0-D4F2-43B9-9342-3DD001A9E101}" id="{35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}">
+    <text>This one is a bit weird. The standard is 50% but we don't necessarily want to go far above it in the same way as we don't want to go far below it...and in this region, we are very far above the threshold in many countries. Do you have any suggestion of how to manage that?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="87.00390625"/>
-    <col customWidth="1" min="2" max="2" width="64.57421875"/>
-    <col customWidth="1" min="3" max="5" width="17.28125"/>
-    <col customWidth="1" min="8" max="8" width="28.421875"/>
+    <col min="1" max="1" width="87" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="5" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:27" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +2170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +2199,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f>_xlfn.CONCAT(G2,"-",I2)</f>
+        <f t="shared" ref="J2:J9" si="0">_xlfn.CONCAT(G2,"-",I2)</f>
         <v>IA1-1.1</v>
       </c>
       <c r="K2" s="11">
@@ -1924,7 +2242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -1953,7 +2271,7 @@
         <v>1.2</v>
       </c>
       <c r="J3" s="10" t="str">
-        <f>_xlfn.CONCAT(G3,"-",I3)</f>
+        <f t="shared" si="0"/>
         <v>IA1-1.2</v>
       </c>
       <c r="K3" s="11">
@@ -1998,7 +2316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:27" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
@@ -2027,7 +2345,7 @@
         <v>1.3</v>
       </c>
       <c r="J4" s="22" t="str">
-        <f>_xlfn.CONCAT(G4,"-",I4)</f>
+        <f t="shared" si="0"/>
         <v>IA1-1.3</v>
       </c>
       <c r="K4" s="23">
@@ -2060,7 +2378,7 @@
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
     </row>
-    <row r="5" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:27" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
@@ -2086,10 +2404,10 @@
         <v>54</v>
       </c>
       <c r="I5" s="22">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J5" s="22" t="str">
-        <f>_xlfn.CONCAT(G5,"-",I5)</f>
+        <f t="shared" si="0"/>
         <v>IA2-2.1</v>
       </c>
       <c r="K5" s="23">
@@ -2140,7 +2458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -2169,7 +2487,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f>_xlfn.CONCAT(G6,"-",I6)</f>
+        <f t="shared" si="0"/>
         <v>IA2-2.2</v>
       </c>
       <c r="K6" s="11">
@@ -2224,7 +2542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -2253,7 +2571,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J7" s="10" t="str">
-        <f>_xlfn.CONCAT(G7,"-",I7)</f>
+        <f t="shared" si="0"/>
         <v>IA2-2.3</v>
       </c>
       <c r="K7" s="11">
@@ -2300,7 +2618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="0" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="28" t="s">
         <v>66</v>
       </c>
@@ -2326,10 +2644,10 @@
         <v>69</v>
       </c>
       <c r="I8" s="31">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J8" s="31" t="str">
-        <f>_xlfn.CONCAT(G8,"-",I8)</f>
+        <f t="shared" si="0"/>
         <v>IA3-3.1</v>
       </c>
       <c r="K8" s="31">
@@ -2374,7 +2692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2403,7 +2721,7 @@
         <v>75</v>
       </c>
       <c r="J9" s="10" t="str">
-        <f>_xlfn.CONCAT(G9,"-",I9)</f>
+        <f t="shared" si="0"/>
         <v>IA3-3.2a</v>
       </c>
       <c r="K9" s="11">
@@ -2456,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -2485,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="J10" s="10" t="str">
-        <f>_xlfn.CONCAT(G10,"-",I10)</f>
+        <f t="shared" ref="J10:J48" si="1">_xlfn.CONCAT(G10,"-",I10)</f>
         <v>IA3-3.2b</v>
       </c>
       <c r="K10" s="11">
@@ -2538,7 +2856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -2564,10 +2882,10 @@
         <v>69</v>
       </c>
       <c r="I11" s="10">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f>_xlfn.CONCAT(G11,"-",I11)</f>
+        <f t="shared" si="1"/>
         <v>IA3-3.3</v>
       </c>
       <c r="K11" s="11">
@@ -2622,7 +2940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -2651,7 +2969,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f>_xlfn.CONCAT(G12,"-",I12)</f>
+        <f t="shared" si="1"/>
         <v>IA4-4.1</v>
       </c>
       <c r="K12" s="11">
@@ -2686,7 +3004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -2715,7 +3033,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f>_xlfn.CONCAT(G13,"-",I13)</f>
+        <f t="shared" si="1"/>
         <v>IA4-4.2a</v>
       </c>
       <c r="K13" s="11">
@@ -2750,7 +3068,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:27" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
@@ -2779,7 +3097,7 @@
         <v>101</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f>_xlfn.CONCAT(G14,"-",I14)</f>
+        <f t="shared" si="1"/>
         <v>IA4-4.2b</v>
       </c>
       <c r="K14" s="11">
@@ -2816,7 +3134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>103</v>
       </c>
@@ -2845,7 +3163,7 @@
         <v>106</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f>_xlfn.CONCAT(G15,"-",I15)</f>
+        <f t="shared" si="1"/>
         <v>IA4-4.3a</v>
       </c>
       <c r="K15" s="11">
@@ -2880,7 +3198,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
@@ -2909,7 +3227,7 @@
         <v>112</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f>_xlfn.CONCAT(G16,"-",I16)</f>
+        <f t="shared" si="1"/>
         <v>IA4-4.3b</v>
       </c>
       <c r="K16" s="11">
@@ -2944,7 +3262,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:27" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
@@ -2973,7 +3291,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f>_xlfn.CONCAT(G17,"-",I17)</f>
+        <f t="shared" si="1"/>
         <v>OA1-1.1</v>
       </c>
       <c r="K17" s="11">
@@ -3016,7 +3334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>122</v>
       </c>
@@ -3045,7 +3363,7 @@
         <v>1.2</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f>_xlfn.CONCAT(G18,"-",I18)</f>
+        <f t="shared" si="1"/>
         <v>OA1-1.2</v>
       </c>
       <c r="K18" s="11">
@@ -3100,7 +3418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:27" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
@@ -3129,7 +3447,7 @@
         <v>1.3</v>
       </c>
       <c r="J19" s="10" t="str">
-        <f>_xlfn.CONCAT(G19,"-",I19)</f>
+        <f t="shared" si="1"/>
         <v>OA1-1.3</v>
       </c>
       <c r="K19" s="11">
@@ -3180,7 +3498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:27" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>129</v>
       </c>
@@ -3206,10 +3524,10 @@
         <v>132</v>
       </c>
       <c r="I20" s="10">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f>_xlfn.CONCAT(G20,"-",I20)</f>
+        <f t="shared" si="1"/>
         <v>OA2-2.1</v>
       </c>
       <c r="K20" s="11">
@@ -3248,7 +3566,7 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:27" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -3277,7 +3595,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f>_xlfn.CONCAT(G21,"-",I21)</f>
+        <f t="shared" si="1"/>
         <v>OA2-2.2</v>
       </c>
       <c r="K21" s="11">
@@ -3314,7 +3632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:27" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
@@ -3343,7 +3661,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f>_xlfn.CONCAT(G22,"-",I22)</f>
+        <f t="shared" si="1"/>
         <v>OA2-2.3</v>
       </c>
       <c r="K22" s="11">
@@ -3386,7 +3704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:27" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>142</v>
       </c>
@@ -3412,10 +3730,10 @@
         <v>146</v>
       </c>
       <c r="I23" s="10">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f>_xlfn.CONCAT(G23,"-",I23)</f>
+        <f t="shared" si="1"/>
         <v>OA3-3.1</v>
       </c>
       <c r="K23" s="11">
@@ -3456,7 +3774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:27" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -3482,10 +3800,10 @@
         <v>146</v>
       </c>
       <c r="I24" s="10">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J24" s="10" t="str">
-        <f>_xlfn.CONCAT(G24,"-",I24)</f>
+        <f t="shared" si="1"/>
         <v>OA3-3.2</v>
       </c>
       <c r="K24" s="11">
@@ -3526,7 +3844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:27" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>152</v>
       </c>
@@ -3555,7 +3873,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J25" s="10" t="str">
-        <f>_xlfn.CONCAT(G25,"-",I25)</f>
+        <f t="shared" si="1"/>
         <v>OA4-4.1</v>
       </c>
       <c r="K25" s="11">
@@ -3608,7 +3926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:27" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>158</v>
       </c>
@@ -3634,10 +3952,10 @@
         <v>156</v>
       </c>
       <c r="I26" s="10">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J26" s="10" t="str">
-        <f>_xlfn.CONCAT(G26,"-",I26)</f>
+        <f t="shared" si="1"/>
         <v>OA4-4.2</v>
       </c>
       <c r="K26" s="11">
@@ -3686,7 +4004,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:27" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>161</v>
       </c>
@@ -3712,10 +4030,10 @@
         <v>156</v>
       </c>
       <c r="I27" s="10">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J27" s="10" t="str">
-        <f>_xlfn.CONCAT(G27,"-",I27)</f>
+        <f t="shared" si="1"/>
         <v>OA4-4.3</v>
       </c>
       <c r="K27" s="11">
@@ -3766,7 +4084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:27" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>164</v>
       </c>
@@ -3795,7 +4113,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J28" s="10" t="str">
-        <f>_xlfn.CONCAT(G28,"-",I28)</f>
+        <f t="shared" si="1"/>
         <v>OA5-5.1</v>
       </c>
       <c r="K28" s="11">
@@ -3846,7 +4164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:27" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
@@ -3872,10 +4190,10 @@
         <v>168</v>
       </c>
       <c r="I29" s="10">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="J29" s="10" t="str">
-        <f>_xlfn.CONCAT(G29,"-",I29)</f>
+        <f t="shared" si="1"/>
         <v>OA5-5.2</v>
       </c>
       <c r="K29" s="11">
@@ -3928,7 +4246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>174</v>
       </c>
@@ -3954,10 +4272,10 @@
         <v>168</v>
       </c>
       <c r="I30" s="10">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="J30" s="10" t="str">
-        <f>_xlfn.CONCAT(G30,"-",I30)</f>
+        <f t="shared" si="1"/>
         <v>OA5-5.3</v>
       </c>
       <c r="K30" s="11">
@@ -4008,7 +4326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:27" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>177</v>
       </c>
@@ -4034,10 +4352,10 @@
         <v>180</v>
       </c>
       <c r="I31" s="22">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f>_xlfn.CONCAT(G31,"-",I31)</f>
+        <f t="shared" si="1"/>
         <v>OA6-6.1</v>
       </c>
       <c r="K31" s="23">
@@ -4074,7 +4392,7 @@
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:27" ht="15" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>182</v>
       </c>
@@ -4100,10 +4418,10 @@
         <v>187</v>
       </c>
       <c r="I32" s="10">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="J32" s="10" t="str">
-        <f>_xlfn.CONCAT(G32,"-",I32)</f>
+        <f t="shared" si="1"/>
         <v>OA7-7.1</v>
       </c>
       <c r="K32" s="11">
@@ -4154,7 +4472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>189</v>
       </c>
@@ -4180,10 +4498,10 @@
         <v>187</v>
       </c>
       <c r="I33" s="10">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="J33" s="10" t="str">
-        <f>_xlfn.CONCAT(G33,"-",I33)</f>
+        <f t="shared" si="1"/>
         <v>OA7-7.2</v>
       </c>
       <c r="K33" s="11">
@@ -4234,7 +4552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>192</v>
       </c>
@@ -4260,10 +4578,10 @@
         <v>187</v>
       </c>
       <c r="I34" s="10">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="J34" s="10" t="str">
-        <f>_xlfn.CONCAT(G34,"-",I34)</f>
+        <f t="shared" si="1"/>
         <v>OA7-7.3</v>
       </c>
       <c r="K34" s="11">
@@ -4312,7 +4630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:27" ht="15" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>196</v>
       </c>
@@ -4338,10 +4656,10 @@
         <v>200</v>
       </c>
       <c r="I35" s="10">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="J35" s="10" t="str">
-        <f>_xlfn.CONCAT(G35,"-",I35)</f>
+        <f t="shared" si="1"/>
         <v>OA8-8.1</v>
       </c>
       <c r="K35" s="11">
@@ -4392,7 +4710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:27" ht="15" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>202</v>
       </c>
@@ -4419,7 +4737,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="J36" s="10" t="str">
-        <f>_xlfn.CONCAT(G36,"-",I36)</f>
+        <f t="shared" si="1"/>
         <v>OA8-8.2</v>
       </c>
       <c r="K36" s="11">
@@ -4472,7 +4790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>206</v>
       </c>
@@ -4498,10 +4816,10 @@
         <v>209</v>
       </c>
       <c r="I37" s="10">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="J37" s="10" t="str">
-        <f>_xlfn.CONCAT(G37,"-",I37)</f>
+        <f t="shared" si="1"/>
         <v>OA9-9.1</v>
       </c>
       <c r="K37" s="11">
@@ -4554,7 +4872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:27" ht="15" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>211</v>
       </c>
@@ -4583,7 +4901,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J38" s="10" t="str">
-        <f>_xlfn.CONCAT(G38,"-",I38)</f>
+        <f t="shared" si="1"/>
         <v>OA9-9.2</v>
       </c>
       <c r="K38" s="11">
@@ -4636,7 +4954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:27" ht="15" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>214</v>
       </c>
@@ -4665,7 +4983,7 @@
         <v>10.1</v>
       </c>
       <c r="J39" s="10" t="str">
-        <f>_xlfn.CONCAT(G39,"-",I39)</f>
+        <f t="shared" si="1"/>
         <v>OA10-10.1</v>
       </c>
       <c r="K39" s="11">
@@ -4710,7 +5028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:27" ht="15" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>219</v>
       </c>
@@ -4739,7 +5057,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="J40" s="10" t="str">
-        <f>_xlfn.CONCAT(G40,"-",I40)</f>
+        <f t="shared" si="1"/>
         <v>OA10-10.2</v>
       </c>
       <c r="K40" s="11">
@@ -4784,7 +5102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:27" ht="15" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -4813,7 +5131,7 @@
         <v>11.1</v>
       </c>
       <c r="J41" s="10" t="str">
-        <f>_xlfn.CONCAT(G41,"-",I41)</f>
+        <f t="shared" si="1"/>
         <v>OA11-11.1</v>
       </c>
       <c r="K41" s="11">
@@ -4860,7 +5178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:27" ht="15" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>227</v>
       </c>
@@ -4886,10 +5204,10 @@
         <v>225</v>
       </c>
       <c r="I42" s="10">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="J42" s="10" t="str">
-        <f>_xlfn.CONCAT(G42,"-",I42)</f>
+        <f t="shared" si="1"/>
         <v>OA11-11.2</v>
       </c>
       <c r="K42" s="11">
@@ -4936,7 +5254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:27" ht="15" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>230</v>
       </c>
@@ -4965,7 +5283,7 @@
         <v>12.1</v>
       </c>
       <c r="J43" s="10" t="str">
-        <f>_xlfn.CONCAT(G43,"-",I43)</f>
+        <f t="shared" si="1"/>
         <v>OA12-12.1</v>
       </c>
       <c r="K43" s="11">
@@ -5018,7 +5336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:27" ht="15" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>236</v>
       </c>
@@ -5044,10 +5362,10 @@
         <v>234</v>
       </c>
       <c r="I44" s="10">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="J44" s="10" t="str">
-        <f>_xlfn.CONCAT(G44,"-",I44)</f>
+        <f t="shared" si="1"/>
         <v>OA12-12.2</v>
       </c>
       <c r="K44" s="11">
@@ -5100,7 +5418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:27" ht="15" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>239</v>
       </c>
@@ -5129,7 +5447,7 @@
         <v>13.1</v>
       </c>
       <c r="J45" s="10" t="str">
-        <f>_xlfn.CONCAT(G45,"-",I45)</f>
+        <f t="shared" si="1"/>
         <v>OA13-13.1</v>
       </c>
       <c r="K45" s="11">
@@ -5180,7 +5498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>244</v>
       </c>
@@ -5206,10 +5524,10 @@
         <v>242</v>
       </c>
       <c r="I46" s="10">
-        <v>13.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="J46" s="10" t="str">
-        <f>_xlfn.CONCAT(G46,"-",I46)</f>
+        <f t="shared" si="1"/>
         <v>OA13-13.2</v>
       </c>
       <c r="K46" s="11">
@@ -5262,7 +5580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>247</v>
       </c>
@@ -5288,10 +5606,10 @@
         <v>242</v>
       </c>
       <c r="I47" s="10">
-        <v>13.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="J47" s="10" t="str">
-        <f>_xlfn.CONCAT(G47,"-",I47)</f>
+        <f t="shared" si="1"/>
         <v>OA13-13.3</v>
       </c>
       <c r="K47" s="11">
@@ -5338,7 +5656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:27" ht="15" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>250</v>
       </c>
@@ -5367,7 +5685,7 @@
         <v>14.1</v>
       </c>
       <c r="J48" s="10" t="str">
-        <f>_xlfn.CONCAT(G48,"-",I48)</f>
+        <f t="shared" si="1"/>
         <v>OA14-14.1</v>
       </c>
       <c r="K48" s="11">
@@ -5448,459 +5766,421 @@
     <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="C1:AA48"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D700A6-0044-457F-AF33-002A001700E4}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>T2:AA48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A30009-0055-412D-8EA7-00CD00620069}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N2:N18 N21:N48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00160070-006C-42CB-A738-009D00D1009E}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004B0002-0026-4E67-96CC-00BB00A40074}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N20</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <autoFilter ref="C1:AA48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="T2:AA48">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N18 N21:N48">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="69.8515625"/>
-    <col customWidth="1" min="2" max="2" width="7.28125"/>
-    <col customWidth="1" min="3" max="3" width="16.421875"/>
-    <col customWidth="1" min="4" max="4" width="17.421875"/>
-    <col customWidth="1" min="5" max="5" width="17.28125"/>
-    <col customWidth="1" min="8" max="8" width="15.7109375"/>
-    <col customWidth="1" min="10" max="10" width="13.57421875"/>
-    <col customWidth="1" min="13" max="13" width="19.140625"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:28" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:28" ht="15" customHeight="1">
+      <c r="A2" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J2" s="10" t="str">
-        <f t="shared" ref="J2:J9" si="0">_xlfn.CONCAT(G2,"-",I2)</f>
+      <c r="K2" s="10" t="str">
+        <f t="shared" ref="K2:K9" si="0">_xlfn.CONCAT(H2,"-",J2)</f>
         <v>IA1-1.1</v>
       </c>
-      <c r="K2" s="11">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="12" t="b">
+      <c r="O2" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O2" s="13">
-        <v>39</v>
-      </c>
-      <c r="P2" s="14">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>100</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>80</v>
+      </c>
+      <c r="R2" s="15">
+        <v>100</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:28" ht="15" customHeight="1">
+      <c r="A3" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>1.2</v>
       </c>
-      <c r="J3" s="10" t="str">
+      <c r="K3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>IA1-1.2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>2</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="12" t="b">
+      <c r="O3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="13">
-        <v>39</v>
-      </c>
-      <c r="P3" s="14">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="P3" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>80</v>
+      </c>
+      <c r="R3" s="15">
+        <v>100</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
+      <c r="T3" s="6"/>
       <c r="U3" s="6">
         <v>1</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="6">
+        <v>1</v>
+      </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:28" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="22">
+      <c r="J4" s="22">
         <v>1.3</v>
       </c>
-      <c r="J4" s="22" t="str">
+      <c r="K4" s="22" t="str">
         <f t="shared" si="0"/>
         <v>IA1-1.3</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="23">
         <v>3</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="17" t="b">
+      <c r="O4" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="25"/>
+      <c r="S4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19">
-        <v>1</v>
-      </c>
-      <c r="U4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19">
+        <v>1</v>
+      </c>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
     </row>
-    <row r="5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:28" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="22">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="J5" s="22" t="str">
+      <c r="J5" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="K5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>IA2-2.1</v>
       </c>
-      <c r="K5" s="23">
+      <c r="L5" s="23">
         <v>4</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="24">
-        <v>100</v>
-      </c>
-      <c r="P5" s="25">
-        <v>51</v>
+      <c r="O5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="24">
+        <v>100</v>
       </c>
       <c r="Q5" s="25">
-        <v>35</v>
-      </c>
-      <c r="R5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="25">
+        <v>40</v>
+      </c>
+      <c r="S5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19">
-        <v>1</v>
-      </c>
+      <c r="T5" s="19"/>
       <c r="U5" s="19">
         <v>1</v>
       </c>
@@ -5913,76 +6193,79 @@
       <c r="X5" s="19">
         <v>1</v>
       </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19" t="s">
+      <c r="Y5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AB5" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:28" ht="15" customHeight="1">
+      <c r="A6" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="K6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>IA2-2.2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>5</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="12" t="b">
+      <c r="O6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="13">
+      <c r="P6" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="14">
         <v>70</v>
       </c>
-      <c r="P6" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>100</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="15">
+        <v>100</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="T6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
       <c r="U6" s="6">
         <v>1</v>
       </c>
@@ -5998,389 +6281,404 @@
       <c r="Y6" s="6">
         <v>1</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AB6" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:28" ht="15" customHeight="1">
+      <c r="A7" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="K7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>IA2-2.3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>6</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="12" t="b">
+      <c r="O7" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="13">
-        <v>60</v>
-      </c>
-      <c r="P7" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>100</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="P7" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>80</v>
+      </c>
+      <c r="R7" s="15">
+        <v>100</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="T7" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
       <c r="U7" s="6">
         <v>1</v>
       </c>
-      <c r="V7" s="6"/>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="0" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:28" ht="15" customHeight="1">
+      <c r="A8" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="H8" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="31">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="J8" s="31" t="str">
+      <c r="J8" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="K8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>IA3-3.1</v>
       </c>
-      <c r="K8" s="31">
+      <c r="L8" s="31">
         <v>7</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>70</v>
       </c>
-      <c r="N8" t="b">
+      <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="32">
+      <c r="P8" s="13">
         <v>40</v>
       </c>
-      <c r="P8" s="33">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>100</v>
-      </c>
-      <c r="R8" s="29" t="s">
+      <c r="Q8" s="14">
+        <v>80</v>
+      </c>
+      <c r="R8" s="15">
+        <v>100</v>
+      </c>
+      <c r="S8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29">
-        <v>1</v>
-      </c>
+      <c r="T8" s="29"/>
       <c r="U8" s="29">
         <v>1</v>
       </c>
-      <c r="V8" s="29"/>
+      <c r="V8" s="29">
+        <v>1</v>
+      </c>
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
       <c r="Y8" s="29"/>
-      <c r="Z8" s="29" t="s">
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AB8" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:28" ht="15" customHeight="1">
+      <c r="A9" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="K9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>IA3-3.2a</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>8</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="12" t="b">
+      <c r="O9" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="13">
-        <v>60</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>70</v>
+      </c>
+      <c r="R9" s="15">
+        <v>100</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="15">
-        <v>100</v>
-      </c>
-      <c r="R9" s="6" t="s">
+      <c r="K10" s="10" t="str">
+        <f t="shared" ref="K10:K53" si="1">_xlfn.CONCAT(H10,"-",J10)</f>
+        <v>IA3-3.2b</v>
+      </c>
+      <c r="L10" s="11">
+        <v>9</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>70</v>
+      </c>
+      <c r="R10" s="15">
+        <v>100</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="T10" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
-        <v>1</v>
-      </c>
-      <c r="V9" s="6">
-        <v>1</v>
-      </c>
-      <c r="W9" s="6">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6" t="s">
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AB10" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="11" spans="1:28" ht="15" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f t="shared" ref="J10:J48" si="1">_xlfn.CONCAT(G10,"-",I10)</f>
-        <v>IA3-3.2b</v>
-      </c>
-      <c r="K10" s="11">
-        <v>9</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>50</v>
-      </c>
-      <c r="P10" s="14">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>100</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
-        <v>1</v>
-      </c>
-      <c r="V10" s="6">
-        <v>1</v>
-      </c>
-      <c r="W10" s="6">
-        <v>1</v>
-      </c>
-      <c r="X10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="10">
-        <v>3.2999999999999998</v>
-      </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="K11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>IA3-3.3</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>10</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="12" t="b">
+      <c r="O11" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="14">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>100</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="P11" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>70</v>
+      </c>
+      <c r="R11" s="15">
+        <v>100</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="T11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
       <c r="U11" s="6">
         <v>1</v>
       </c>
@@ -6396,469 +6694,490 @@
       <c r="Y11" s="6">
         <v>1</v>
       </c>
-      <c r="Z11" s="6" t="s">
+      <c r="Z11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AB11" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:28" ht="15" customHeight="1">
+      <c r="A12" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="K12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>IA4-4.1</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>11</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="12" t="b">
+      <c r="O12" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="6" t="s">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="6" t="s">
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:28" ht="15" customHeight="1">
+      <c r="A13" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="K13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>IA4-4.2a</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>12</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="12" t="b">
+      <c r="O13" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="6" t="s">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="6" t="s">
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:28" ht="15" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="K14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>IA4-4.2b</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <v>13</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="12" t="b">
+      <c r="O14" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="6" t="s">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6">
+        <v>1</v>
+      </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="6" t="s">
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:28" ht="15" customHeight="1">
+      <c r="A15" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="K15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>IA4-4.3a</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>14</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="12" t="b">
+      <c r="O15" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="6" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="6">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="6">
+        <v>1</v>
+      </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="7" t="s">
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:28" ht="15" customHeight="1">
+      <c r="A16" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="K16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>IA4-4.3b</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <v>15</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="M16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N16" s="12" t="b">
+      <c r="O16" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="6" t="s">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="7" t="s">
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:28" ht="15" customHeight="1">
+      <c r="A17" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="K17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA1-1.1</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>16</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="M17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="12" t="b">
+      <c r="O17" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="P17" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="14">
         <v>80</v>
       </c>
-      <c r="P17" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>100</v>
-      </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="15">
+        <v>100</v>
+      </c>
+      <c r="S17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="6" t="s">
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AB17" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:28" ht="15" customHeight="1">
+      <c r="A18" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <v>1.2</v>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="K18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA1-1.2</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <v>17</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="12" t="b">
+      <c r="O18" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O18" s="13">
+      <c r="P18" s="13">
         <v>40</v>
       </c>
-      <c r="P18" s="14">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>100</v>
-      </c>
-      <c r="R18" s="6" t="s">
+      <c r="Q18" s="14">
+        <v>80</v>
+      </c>
+      <c r="R18" s="15">
+        <v>100</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="T18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="6">
-        <v>1</v>
-      </c>
       <c r="U18" s="6">
         <v>1</v>
       </c>
@@ -6874,501 +7193,528 @@
       <c r="Y18" s="6">
         <v>1</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="Z18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AB18" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:28" ht="15" customHeight="1">
+      <c r="A19" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="10">
         <v>1.3</v>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="K19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA1-1.3</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>18</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="N19" s="12" t="b">
+      <c r="O19" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O19" s="13">
+      <c r="P19" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="14">
         <v>80</v>
       </c>
-      <c r="P19" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>100</v>
-      </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="15">
+        <v>100</v>
+      </c>
+      <c r="S19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="27" t="s">
+      <c r="T19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="6">
-        <v>1</v>
-      </c>
       <c r="U19" s="6">
         <v>1</v>
       </c>
       <c r="V19" s="6">
         <v>1</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6" t="s">
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AB19" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="35" t="s">
-        <v>129</v>
+    <row r="20" spans="1:28" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="D20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="E20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="F20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="G20" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="H20" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="I20" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="39">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="J20" s="39" t="str">
+      <c r="J20" s="40">
+        <v>2.1</v>
+      </c>
+      <c r="K20" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OA2-2.1</v>
       </c>
-      <c r="K20" s="40">
+      <c r="L20" s="41">
         <v>19</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="M20" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="N20" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="N20" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="41">
-        <v>2000</v>
+      <c r="O20" s="35" t="b">
+        <v>1</v>
       </c>
       <c r="P20" s="42">
-        <v>541</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>480</v>
-      </c>
-      <c r="R20" s="36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>540</v>
+      </c>
+      <c r="R20" s="43">
+        <v>270</v>
+      </c>
+      <c r="S20" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="S20" s="36"/>
-      <c r="T20" s="37">
-        <v>1</v>
-      </c>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="38">
+        <v>1</v>
+      </c>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:28" ht="15" customHeight="1">
+      <c r="A21" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="10">
+      <c r="J21" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="K21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA2-2.2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <v>20</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="M21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N21" s="12" t="b">
+      <c r="O21" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7">
-        <v>1</v>
-      </c>
-      <c r="U21" s="7"/>
+      <c r="P21" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>80</v>
+      </c>
+      <c r="R21" s="15">
+        <v>100</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="7">
+        <v>1</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="7" t="s">
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AB21" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:28" ht="15" customHeight="1">
+      <c r="A22" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="10">
+      <c r="J22" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="K22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA2-2.3</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>21</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="N22" s="12" t="b">
+      <c r="O22" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O22" s="13">
-        <v>30</v>
-      </c>
-      <c r="P22" s="14">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>100</v>
-      </c>
-      <c r="R22" s="6" t="s">
+      <c r="P22" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>80</v>
+      </c>
+      <c r="R22" s="15">
+        <v>100</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7">
-        <v>1</v>
-      </c>
-      <c r="U22" s="7"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="7">
+        <v>1</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="7" t="s">
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AB22" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:28" ht="15" customHeight="1">
+      <c r="A23" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="G23" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="10">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="K23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA3-3.1</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>22</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="M23" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="N23" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="N23" s="12" t="b">
+      <c r="O23" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O23" s="13">
-        <v>1</v>
-      </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="14">
         <v>2</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="R23" s="15">
         <v>3</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="S23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6">
-        <v>1</v>
-      </c>
-      <c r="U23" s="7"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
-      <c r="AA23" s="6">
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:28" ht="15" customHeight="1">
+      <c r="A24" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="G24" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="10">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="K24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA3-3.2</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>23</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="M24" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="N24" s="12" t="b">
+      <c r="O24" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O24" s="13">
-        <v>1</v>
-      </c>
-      <c r="P24" s="14">
+      <c r="P24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="14">
         <v>2</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="R24" s="15">
         <v>3</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="S24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="6">
-        <v>1</v>
-      </c>
-      <c r="V24" s="7"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="6">
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:28" ht="15" customHeight="1">
+      <c r="A25" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="G25" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J25" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="K25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA4-4.1</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>24</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="M25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="N25" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N25" s="12" t="b">
+      <c r="O25" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O25" s="13">
-        <v>41</v>
-      </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="14">
         <v>70</v>
       </c>
-      <c r="Q25" s="15">
-        <v>100</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="15">
+        <v>100</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="27" t="s">
+      <c r="T25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T25" s="7">
-        <v>1</v>
-      </c>
       <c r="U25" s="7">
         <v>1</v>
       </c>
@@ -7384,73 +7730,76 @@
       <c r="Y25" s="7">
         <v>1</v>
       </c>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="6">
+      <c r="Z25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:28" ht="15" customHeight="1">
+      <c r="A26" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="10">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="K26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA4-4.2</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>25</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="M26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="N26" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="12" t="b">
+      <c r="O26" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O26" s="13">
-        <v>21</v>
-      </c>
-      <c r="P26" s="14">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>100</v>
-      </c>
-      <c r="R26" s="6" t="s">
+      <c r="P26" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>70</v>
+      </c>
+      <c r="R26" s="15">
+        <v>100</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="T26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T26" s="7">
-        <v>1</v>
-      </c>
       <c r="U26" s="7">
         <v>1</v>
       </c>
@@ -7463,70 +7812,73 @@
       <c r="X26" s="7">
         <v>1</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="7">
+        <v>1</v>
+      </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:28" ht="15" customHeight="1">
+      <c r="A27" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="G27" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="10">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="J27" s="10" t="str">
+      <c r="J27" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="K27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA4-4.3</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>26</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="M27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="N27" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="N27" s="12" t="b">
+      <c r="O27" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O27" s="13">
-        <v>41</v>
-      </c>
-      <c r="P27" s="14">
+      <c r="P27" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="14">
         <v>70</v>
       </c>
-      <c r="Q27" s="15">
-        <v>100</v>
-      </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="15">
+        <v>100</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="7">
-        <v>1</v>
-      </c>
+      <c r="T27" s="6"/>
       <c r="U27" s="7">
         <v>1</v>
       </c>
@@ -7542,71 +7894,74 @@
       <c r="Y27" s="7">
         <v>1</v>
       </c>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="6">
+      <c r="Z27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:28" ht="15" customHeight="1">
+      <c r="A28" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="G28" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="I28" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="10">
+      <c r="J28" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="K28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA5-5.1</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <v>27</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="M28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="N28" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="N28" s="12" t="b">
+      <c r="O28" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O28" s="13">
-        <v>30</v>
-      </c>
-      <c r="P28" s="14">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>100</v>
-      </c>
-      <c r="R28" s="6" t="s">
+      <c r="P28" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>70</v>
+      </c>
+      <c r="R28" s="15">
+        <v>100</v>
+      </c>
+      <c r="S28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7">
-        <v>1</v>
-      </c>
+      <c r="T28" s="6"/>
       <c r="U28" s="7">
         <v>1</v>
       </c>
@@ -7622,73 +7977,76 @@
       <c r="Y28" s="7">
         <v>1</v>
       </c>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="6">
+      <c r="Z28" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:28" ht="15" customHeight="1">
+      <c r="A29" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="I29" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="10">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="J29" s="10" t="str">
+      <c r="J29" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="K29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA5-5.2</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <v>28</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="M29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="N29" s="12" t="b">
+      <c r="O29" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O29" s="13">
-        <v>70</v>
-      </c>
-      <c r="P29" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>100</v>
-      </c>
-      <c r="R29" s="6" t="s">
+      <c r="P29" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>20</v>
+      </c>
+      <c r="R29" s="15">
+        <v>30</v>
+      </c>
+      <c r="S29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S29" s="26" t="s">
+      <c r="T29" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="T29" s="7">
-        <v>1</v>
-      </c>
       <c r="U29" s="7">
         <v>1</v>
       </c>
@@ -7704,71 +8062,74 @@
       <c r="Y29" s="7">
         <v>1</v>
       </c>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="6">
+      <c r="Z29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:28" ht="15" customHeight="1">
+      <c r="A30" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="10">
-        <v>5.2999999999999998</v>
-      </c>
-      <c r="J30" s="10" t="str">
+      <c r="J30" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="K30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA5-5.3</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11">
         <v>29</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="M30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="N30" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="N30" s="12" t="b">
+      <c r="O30" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O30" s="13">
-        <v>90</v>
-      </c>
-      <c r="P30" s="14">
-        <v>99</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>100</v>
-      </c>
-      <c r="R30" s="6" t="s">
+      <c r="P30" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>70</v>
+      </c>
+      <c r="R30" s="15">
+        <v>100</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="7">
-        <v>1</v>
-      </c>
+      <c r="T30" s="6"/>
       <c r="U30" s="7">
         <v>1</v>
       </c>
@@ -7784,211 +8145,220 @@
       <c r="Y30" s="7">
         <v>1</v>
       </c>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="6">
+      <c r="Z30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="1:28" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="G31" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I31" s="22">
-        <v>6.0999999999999996</v>
-      </c>
-      <c r="J31" s="22" t="str">
+      <c r="J31" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="K31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>OA6-6.1</v>
       </c>
-      <c r="K31" s="23">
+      <c r="L31" s="23">
         <v>30</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="N31" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="N31" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
+      <c r="O31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="24"/>
       <c r="Q31" s="25"/>
-      <c r="R31" s="19" t="s">
+      <c r="R31" s="25"/>
+      <c r="S31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19">
-        <v>1</v>
-      </c>
+      <c r="T31" s="19"/>
       <c r="U31" s="19">
         <v>1</v>
       </c>
-      <c r="V31" s="20"/>
-      <c r="W31" s="19">
-        <v>1</v>
-      </c>
-      <c r="X31" s="20"/>
+      <c r="V31" s="19">
+        <v>1</v>
+      </c>
+      <c r="W31" s="20"/>
+      <c r="X31" s="19">
+        <v>1</v>
+      </c>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
     </row>
-    <row r="32" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="46" t="s">
+    <row r="32" spans="1:28" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="E32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="F32" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="G32" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="H32" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="I32" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="I32" s="48">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="J32" s="48" t="str">
+      <c r="J32" s="50">
+        <v>7.1</v>
+      </c>
+      <c r="K32" s="50" t="str">
         <f t="shared" si="1"/>
         <v>OA7-7.1</v>
       </c>
-      <c r="K32" s="49">
+      <c r="L32" s="51">
         <v>31</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="M32" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M32" s="43" t="s">
+      <c r="N32" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="N32" s="43" t="b">
+      <c r="O32" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="O32" s="13">
-        <v>1</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="P32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="14">
         <v>2</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="R32" s="15">
         <v>3</v>
       </c>
-      <c r="R32" s="45" t="s">
+      <c r="S32" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46">
-        <v>1</v>
-      </c>
-      <c r="U32" s="46">
-        <v>1</v>
-      </c>
-      <c r="V32" s="46">
-        <v>1</v>
-      </c>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="45">
+      <c r="T32" s="47"/>
+      <c r="U32" s="48">
+        <v>1</v>
+      </c>
+      <c r="V32" s="48">
+        <v>1</v>
+      </c>
+      <c r="W32" s="48">
+        <v>1</v>
+      </c>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="47">
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:28" ht="15" customHeight="1">
+      <c r="A33" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="G33" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="I33" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="10">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="J33" s="10" t="str">
+      <c r="J33" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="K33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA7-7.2</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <v>32</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="M33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="N33" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="N33" s="12" t="b">
+      <c r="O33" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O33" s="13">
-        <v>31</v>
-      </c>
-      <c r="P33" s="14">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>100</v>
-      </c>
-      <c r="R33" s="6" t="s">
+      <c r="P33" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>70</v>
+      </c>
+      <c r="R33" s="15">
+        <v>100</v>
+      </c>
+      <c r="S33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="7">
-        <v>1</v>
-      </c>
+      <c r="T33" s="6"/>
       <c r="U33" s="7">
         <v>1</v>
       </c>
@@ -8004,71 +8374,74 @@
       <c r="Y33" s="7">
         <v>1</v>
       </c>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="6">
+      <c r="Z33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:28" ht="15" customHeight="1">
+      <c r="A34" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="I34" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I34" s="10">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="J34" s="10" t="str">
+      <c r="J34" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="K34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA7-7.3</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11">
         <v>33</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="M34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="N34" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N34" s="12" t="b">
+      <c r="O34" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O34" s="13">
+      <c r="P34" s="13">
         <v>20</v>
       </c>
-      <c r="P34" s="14">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>100</v>
-      </c>
-      <c r="R34" s="6" t="s">
+      <c r="Q34" s="14">
+        <v>35</v>
+      </c>
+      <c r="R34" s="15">
+        <v>50</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6">
-        <v>1</v>
-      </c>
+      <c r="T34" s="6"/>
       <c r="U34" s="6">
         <v>1</v>
       </c>
@@ -8081,72 +8454,75 @@
       <c r="X34" s="6">
         <v>1</v>
       </c>
-      <c r="Y34" s="6"/>
+      <c r="Y34" s="6">
+        <v>1</v>
+      </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="6">
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:28" ht="15" customHeight="1">
+      <c r="A35" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="G35" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="I35" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="10">
-        <v>8.0999999999999996</v>
-      </c>
-      <c r="J35" s="10" t="str">
+      <c r="J35" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="K35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA8-8.1</v>
       </c>
-      <c r="K35" s="11">
+      <c r="L35" s="11">
         <v>34</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="M35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="N35" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="N35" s="12" t="b">
+      <c r="O35" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O35" s="13">
-        <v>50</v>
-      </c>
-      <c r="P35" s="14">
-        <v>79</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>100</v>
-      </c>
-      <c r="R35" s="6" t="s">
+      <c r="P35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>5</v>
+      </c>
+      <c r="R35" s="15">
+        <v>10</v>
+      </c>
+      <c r="S35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="7">
-        <v>1</v>
-      </c>
+      <c r="T35" s="6"/>
       <c r="U35" s="7">
         <v>1</v>
       </c>
@@ -8162,153 +8538,159 @@
       <c r="Y35" s="7">
         <v>1</v>
       </c>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="6">
+      <c r="Z35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:28" ht="15" customHeight="1">
+      <c r="A36" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="G36" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="I36" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="10">
+      <c r="J36" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J36" s="10" t="str">
+      <c r="K36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA8-8.2</v>
       </c>
-      <c r="K36" s="11">
+      <c r="L36" s="11">
         <v>35</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="M36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="N36" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="12" t="b">
+      <c r="O36" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O36" s="13">
-        <v>20</v>
-      </c>
-      <c r="P36" s="14">
+      <c r="P36" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>80</v>
+      </c>
+      <c r="R36" s="15">
+        <v>100</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U36" s="7">
+        <v>1</v>
+      </c>
+      <c r="V36" s="7">
+        <v>1</v>
+      </c>
+      <c r="W36" s="7">
+        <v>1</v>
+      </c>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15" customHeight="1">
+      <c r="A37" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q36" s="15">
-        <v>100</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S36" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="T36" s="7">
-        <v>1</v>
-      </c>
-      <c r="U36" s="7">
-        <v>1</v>
-      </c>
-      <c r="V36" s="7">
-        <v>1</v>
-      </c>
-      <c r="W36" s="7">
-        <v>1</v>
-      </c>
-      <c r="X36" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="G37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="I37" s="10">
-        <v>9.0999999999999996</v>
-      </c>
-      <c r="J37" s="10" t="str">
+      <c r="J37" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="K37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA9-9.1</v>
       </c>
-      <c r="K37" s="11">
+      <c r="L37" s="11">
         <v>36</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="M37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="N37" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N37" s="12" t="b">
+      <c r="O37" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O37" s="13">
+      <c r="P37" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="14">
         <v>70</v>
       </c>
-      <c r="P37" s="14">
-        <v>84</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>100</v>
-      </c>
-      <c r="R37" s="6" t="s">
+      <c r="R37" s="15">
+        <v>100</v>
+      </c>
+      <c r="S37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S37" s="27" t="s">
+      <c r="T37" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T37" s="7">
-        <v>1</v>
-      </c>
       <c r="U37" s="7">
         <v>1</v>
       </c>
@@ -8324,73 +8706,76 @@
       <c r="Y37" s="7">
         <v>1</v>
       </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="6">
+      <c r="Z37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:28" ht="15" customHeight="1">
+      <c r="A38" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="G38" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="I38" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="I38" s="10">
+      <c r="J38" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J38" s="10" t="str">
+      <c r="K38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA9-9.2</v>
       </c>
-      <c r="K38" s="11">
+      <c r="L38" s="11">
         <v>37</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="M38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="N38" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N38" s="12" t="b">
+      <c r="O38" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O38" s="13">
-        <v>20</v>
-      </c>
-      <c r="P38" s="14">
-        <v>60</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>100</v>
-      </c>
-      <c r="R38" s="6" t="s">
+      <c r="P38" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>80</v>
+      </c>
+      <c r="R38" s="15">
+        <v>100</v>
+      </c>
+      <c r="S38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S38" s="27" t="s">
+      <c r="T38" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T38" s="7">
-        <v>1</v>
-      </c>
       <c r="U38" s="7">
         <v>1</v>
       </c>
@@ -8406,219 +8791,228 @@
       <c r="Y38" s="7">
         <v>1</v>
       </c>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="6">
+      <c r="Z38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:28" ht="15" customHeight="1">
+      <c r="A39" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="G39" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="I39" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I39" s="10">
+      <c r="J39" s="10">
         <v>10.1</v>
       </c>
-      <c r="J39" s="10" t="str">
-        <f>_xlfn.CONCAT(G39,"-",I39)</f>
+      <c r="K39" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>OA10-10.1</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L39" s="11">
         <v>38</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="M39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="12" t="s">
+      <c r="N39" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="N39" s="12" t="b">
+      <c r="O39" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O39" s="13">
-        <v>90</v>
-      </c>
-      <c r="P39" s="14">
-        <v>94</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>100</v>
-      </c>
-      <c r="R39" s="6" t="s">
+      <c r="P39" s="13">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>95</v>
+      </c>
+      <c r="R39" s="15">
+        <v>100</v>
+      </c>
+      <c r="S39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S39" s="27" t="s">
+      <c r="T39" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T39" s="6">
-        <v>1</v>
-      </c>
       <c r="U39" s="6">
         <v>1</v>
       </c>
-      <c r="V39" s="7"/>
+      <c r="V39" s="6">
+        <v>1</v>
+      </c>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
-      <c r="AA39" s="6">
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:28" ht="15" customHeight="1">
+      <c r="A40" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G40" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="I40" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I40" s="10">
+      <c r="J40" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="J40" s="10" t="str">
+      <c r="K40" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA10-10.2</v>
       </c>
-      <c r="K40" s="11">
+      <c r="L40" s="11">
         <v>39</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="M40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="N40" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="N40" s="12" t="b">
+      <c r="O40" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O40" s="13">
+      <c r="P40" s="13">
         <v>80</v>
       </c>
-      <c r="P40" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>100</v>
-      </c>
-      <c r="R40" s="6" t="s">
+      <c r="Q40" s="14">
+        <v>90</v>
+      </c>
+      <c r="R40" s="15">
+        <v>100</v>
+      </c>
+      <c r="S40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S40" s="27" t="s">
+      <c r="T40" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="6">
-        <v>1</v>
-      </c>
       <c r="U40" s="6">
         <v>1</v>
       </c>
-      <c r="V40" s="7"/>
+      <c r="V40" s="6">
+        <v>1</v>
+      </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
-      <c r="AA40" s="6">
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:28" ht="15" customHeight="1">
+      <c r="A41" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="G41" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="I41" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="I41" s="10">
+      <c r="J41" s="10">
         <v>11.1</v>
       </c>
-      <c r="J41" s="10" t="str">
+      <c r="K41" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA11-11.1</v>
       </c>
-      <c r="K41" s="11">
+      <c r="L41" s="11">
         <v>40</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="M41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="N41" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="N41" s="12" t="b">
+      <c r="O41" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O41" s="13">
-        <v>11</v>
-      </c>
-      <c r="P41" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>100</v>
-      </c>
-      <c r="R41" s="6" t="s">
+      <c r="P41" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>10</v>
+      </c>
+      <c r="R41" s="15">
+        <v>15</v>
+      </c>
+      <c r="S41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6">
-        <v>1</v>
-      </c>
+      <c r="T41" s="6"/>
       <c r="U41" s="6">
         <v>1</v>
       </c>
@@ -8628,73 +9022,76 @@
       <c r="W41" s="6">
         <v>1</v>
       </c>
-      <c r="X41" s="7"/>
+      <c r="X41" s="6">
+        <v>1</v>
+      </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
-      <c r="AA41" s="6">
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:28" ht="15" customHeight="1">
+      <c r="A42" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="I42" s="10">
-        <v>11.199999999999999</v>
-      </c>
-      <c r="J42" s="10" t="str">
+      <c r="J42" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="K42" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA11-11.2</v>
       </c>
-      <c r="K42" s="11">
+      <c r="L42" s="11">
         <v>41</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="M42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="N42" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="N42" s="12" t="b">
+      <c r="O42" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O42" s="13">
-        <v>31</v>
-      </c>
-      <c r="P42" s="14">
-        <v>59</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>100</v>
-      </c>
-      <c r="R42" s="6" t="s">
+      <c r="P42" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>70</v>
+      </c>
+      <c r="R42" s="15">
+        <v>100</v>
+      </c>
+      <c r="S42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6">
-        <v>1</v>
-      </c>
+      <c r="T42" s="6"/>
       <c r="U42" s="6">
         <v>1</v>
       </c>
@@ -8704,75 +9101,78 @@
       <c r="W42" s="6">
         <v>1</v>
       </c>
-      <c r="X42" s="7"/>
+      <c r="X42" s="6">
+        <v>1</v>
+      </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
-      <c r="AA42" s="6">
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:28" ht="15" customHeight="1">
+      <c r="A43" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="I43" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I43" s="10">
+      <c r="J43" s="10">
         <v>12.1</v>
       </c>
-      <c r="J43" s="10" t="str">
+      <c r="K43" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA12-12.1</v>
       </c>
-      <c r="K43" s="11">
+      <c r="L43" s="11">
         <v>42</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="M43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="N43" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="N43" s="12" t="b">
+      <c r="O43" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O43" s="13">
-        <v>70</v>
-      </c>
-      <c r="P43" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>100</v>
-      </c>
-      <c r="R43" s="6" t="s">
+      <c r="P43" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>80</v>
+      </c>
+      <c r="R43" s="15">
+        <v>100</v>
+      </c>
+      <c r="S43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="27" t="s">
+      <c r="T43" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T43" s="7">
-        <v>1</v>
-      </c>
       <c r="U43" s="7">
         <v>1</v>
       </c>
@@ -8788,73 +9188,76 @@
       <c r="Y43" s="7">
         <v>1</v>
       </c>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="6">
+      <c r="Z43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:28" ht="15" customHeight="1">
+      <c r="A44" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I44" s="10">
-        <v>12.199999999999999</v>
-      </c>
-      <c r="J44" s="10" t="str">
+      <c r="J44" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="K44" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA12-12.2</v>
       </c>
-      <c r="K44" s="11">
+      <c r="L44" s="11">
         <v>43</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="M44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="N44" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="N44" s="12" t="b">
+      <c r="O44" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O44" s="13">
-        <v>70</v>
-      </c>
-      <c r="P44" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q44" s="15">
-        <v>100</v>
-      </c>
-      <c r="R44" s="6" t="s">
+      <c r="P44" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>80</v>
+      </c>
+      <c r="R44" s="15">
+        <v>100</v>
+      </c>
+      <c r="S44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="T44" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T44" s="7">
-        <v>1</v>
-      </c>
       <c r="U44" s="7">
         <v>1</v>
       </c>
@@ -8870,153 +9273,159 @@
       <c r="Y44" s="7">
         <v>1</v>
       </c>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="6">
+      <c r="Z44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:28" ht="15" customHeight="1">
+      <c r="A45" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="I45" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="I45" s="10">
+      <c r="J45" s="10">
         <v>13.1</v>
       </c>
-      <c r="J45" s="10" t="str">
+      <c r="K45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA13-13.1</v>
       </c>
-      <c r="K45" s="11">
+      <c r="L45" s="11">
         <v>44</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="M45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="N45" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="N45" s="12" t="b">
+      <c r="O45" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O45" s="13">
+      <c r="P45" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>70</v>
+      </c>
+      <c r="R45" s="15">
+        <v>100</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U45" s="6">
+        <v>1</v>
+      </c>
+      <c r="V45" s="6">
+        <v>1</v>
+      </c>
+      <c r="W45" s="6">
+        <v>1</v>
+      </c>
+      <c r="X45" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="15" customHeight="1">
+      <c r="A46" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P45" s="14">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="15">
-        <v>100</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S45" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="T45" s="6">
-        <v>1</v>
-      </c>
-      <c r="U45" s="6">
-        <v>1</v>
-      </c>
-      <c r="V45" s="6">
-        <v>1</v>
-      </c>
-      <c r="W45" s="6">
-        <v>1</v>
-      </c>
-      <c r="X45" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="I46" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="I46" s="10">
-        <v>13.199999999999999</v>
-      </c>
-      <c r="J46" s="10" t="str">
+      <c r="J46" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="K46" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA13-13.2</v>
       </c>
-      <c r="K46" s="11">
+      <c r="L46" s="11">
         <v>45</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="M46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="N46" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N46" s="12" t="b">
+      <c r="O46" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O46" s="13">
-        <v>11</v>
-      </c>
-      <c r="P46" s="14">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="15">
-        <v>100</v>
-      </c>
-      <c r="R46" s="6" t="s">
+      <c r="P46" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>35</v>
+      </c>
+      <c r="R46" s="15">
+        <v>50</v>
+      </c>
+      <c r="S46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="T46" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T46" s="7">
-        <v>1</v>
-      </c>
       <c r="U46" s="7">
         <v>1</v>
       </c>
@@ -9032,67 +9441,76 @@
       <c r="Y46" s="7">
         <v>1</v>
       </c>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="6">
+      <c r="Z46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:28" ht="15" customHeight="1">
+      <c r="A47" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="I47" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="I47" s="10">
-        <v>13.300000000000001</v>
-      </c>
-      <c r="J47" s="10" t="str">
+      <c r="J47" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="K47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA13-13.3</v>
       </c>
-      <c r="K47" s="11">
+      <c r="L47" s="11">
         <v>46</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="M47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="N47" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="N47" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" s="27" t="s">
+      <c r="O47" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>10</v>
+      </c>
+      <c r="R47" s="15">
+        <v>5</v>
+      </c>
+      <c r="S47" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T47" s="7">
-        <v>1</v>
-      </c>
       <c r="U47" s="7">
         <v>1</v>
       </c>
@@ -9108,322 +9526,337 @@
       <c r="Y47" s="7">
         <v>1</v>
       </c>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="6">
+      <c r="Z47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:28" ht="15" customHeight="1">
+      <c r="A48" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="H48" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="I48" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="I48" s="10">
+      <c r="J48" s="10">
         <v>14.1</v>
       </c>
-      <c r="J48" s="10" t="str">
+      <c r="K48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OA14-14.1</v>
       </c>
-      <c r="K48" s="11">
+      <c r="L48" s="11">
         <v>47</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="M48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="N48" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="N48" s="12" t="b">
+      <c r="O48" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O48" s="13">
+      <c r="P48" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="14">
         <v>80</v>
       </c>
-      <c r="P48" s="14">
-        <v>89</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>100</v>
-      </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="15">
+        <v>100</v>
+      </c>
+      <c r="S48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S48" s="27" t="s">
+      <c r="T48" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="6">
-        <v>1</v>
-      </c>
-      <c r="X48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="6">
+        <v>1</v>
+      </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
-      <c r="AA48" s="6">
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="7" t="s">
+    <row r="49" spans="1:28" ht="15" customHeight="1">
+      <c r="A49" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I49" s="10">
+      <c r="H49" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" s="10">
         <v>15.1</v>
       </c>
-      <c r="J49" s="10" t="str">
-        <f>_xlfn.CONCAT(G49,"-",I49)</f>
+      <c r="K49" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>OA15-15.1</v>
       </c>
-      <c r="K49" s="11">
+      <c r="L49" s="11">
         <v>48</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="M49" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M49" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="N49" s="12" t="b">
+      <c r="N49" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="O49" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O49" s="41"/>
       <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="6" t="s">
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T49" s="7">
-        <v>1</v>
-      </c>
-      <c r="U49" s="7"/>
+      <c r="U49" s="7">
+        <v>1</v>
+      </c>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
-      <c r="X49" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7">
+        <v>1</v>
+      </c>
       <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="7" t="s">
+    <row r="50" spans="1:28" ht="15" customHeight="1">
+      <c r="A50" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I50" s="10">
-        <v>15.199999999999999</v>
-      </c>
-      <c r="J50" s="10" t="str">
-        <f>_xlfn.CONCAT(G50,"-",I50)</f>
+      <c r="H50" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="K50" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>OA15-15.2</v>
       </c>
-      <c r="K50" s="11">
+      <c r="L50" s="11">
         <v>49</v>
       </c>
-      <c r="L50" s="34" t="s">
+      <c r="M50" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="M50" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N50" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50" s="41">
-        <v>2000</v>
+      <c r="N50" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="O50" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="P50" s="42">
-        <v>541</v>
-      </c>
-      <c r="Q50" s="42">
+        <v>542</v>
+      </c>
+      <c r="Q50" s="43">
         <v>480</v>
       </c>
-      <c r="R50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T50" s="7">
-        <v>1</v>
-      </c>
-      <c r="U50" s="7"/>
+      <c r="R50" s="43">
+        <v>360</v>
+      </c>
+      <c r="S50" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="U50" s="7">
+        <v>1</v>
+      </c>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7">
+        <v>1</v>
+      </c>
       <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="7" t="s">
+    <row r="51" spans="1:28" ht="15" customHeight="1">
+      <c r="A51" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="G51" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I51" s="10">
-        <v>15.300000000000001</v>
-      </c>
-      <c r="J51" s="10" t="str">
-        <f>_xlfn.CONCAT(G51,"-",I51)</f>
+      <c r="H51" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="K51" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>OA15-15.3</v>
       </c>
-      <c r="K51" s="11">
+      <c r="L51" s="11">
         <v>50</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="M51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="N51" s="12" t="b">
+      <c r="N51" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O51" s="41"/>
       <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="6" t="s">
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T51" s="7">
-        <v>1</v>
-      </c>
-      <c r="U51" s="7"/>
+      <c r="U51" s="7">
+        <v>1</v>
+      </c>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
-      <c r="X51" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7">
+        <v>1</v>
+      </c>
       <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="7" t="s">
+    <row r="52" spans="1:28" ht="15" customHeight="1">
+      <c r="A52" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="G52" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" t="s">
-        <v>267</v>
-      </c>
-      <c r="I52" s="10">
+      <c r="H52" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" s="10">
         <v>16.100000000000001</v>
       </c>
-      <c r="J52" s="10" t="str">
-        <f>_xlfn.CONCAT(G52,"-",I52)</f>
+      <c r="K52" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>OA16-16.1</v>
       </c>
-      <c r="K52" s="11">
+      <c r="L52" s="11">
         <v>51</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="M52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M52" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="N52" s="12" t="b">
+      <c r="N52" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="O52" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O52" s="13">
-        <v>32</v>
-      </c>
-      <c r="P52" s="14">
-        <v>65</v>
-      </c>
-      <c r="Q52" s="15">
-        <v>100</v>
-      </c>
-      <c r="R52" s="6" t="s">
+      <c r="P52" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>70</v>
+      </c>
+      <c r="R52" s="15">
+        <v>100</v>
+      </c>
+      <c r="S52" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T52" s="7">
-        <v>1</v>
-      </c>
       <c r="U52" s="7">
         <v>1</v>
       </c>
@@ -9436,68 +9869,71 @@
       <c r="X52" s="7">
         <v>1</v>
       </c>
-      <c r="Y52" s="7"/>
+      <c r="Y52" s="7">
+        <v>1</v>
+      </c>
       <c r="Z52" s="7"/>
-      <c r="AA52">
+      <c r="AA52" s="7"/>
+      <c r="AB52">
         <v>100</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="7" t="s">
+    <row r="53" spans="1:28" ht="15" customHeight="1">
+      <c r="A53" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H53" t="s">
-        <v>267</v>
-      </c>
-      <c r="I53" s="10">
-        <v>16.199999999999999</v>
-      </c>
-      <c r="J53" s="10" t="str">
-        <f>_xlfn.CONCAT(G53,"-",I53)</f>
+      <c r="H53" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" s="10">
+        <v>16.2</v>
+      </c>
+      <c r="K53" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>OA16-16.2</v>
       </c>
-      <c r="K53" s="11">
+      <c r="L53" s="11">
         <v>52</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="M53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M53" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="N53" s="12" t="b">
+      <c r="N53" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="O53" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O53" s="13">
-        <v>32</v>
-      </c>
-      <c r="P53" s="14">
-        <v>65</v>
-      </c>
-      <c r="Q53" s="15">
-        <v>100</v>
-      </c>
-      <c r="R53" s="6" t="s">
+      <c r="P53" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>70</v>
+      </c>
+      <c r="R53" s="15">
+        <v>100</v>
+      </c>
+      <c r="S53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T53" s="7">
-        <v>1</v>
-      </c>
       <c r="U53" s="7">
         <v>1</v>
       </c>
@@ -9510,23 +9946,26 @@
       <c r="X53" s="7">
         <v>1</v>
       </c>
-      <c r="Y53" s="7"/>
+      <c r="Y53" s="7">
+        <v>1</v>
+      </c>
       <c r="Z53" s="7"/>
-      <c r="AA53" s="51">
+      <c r="AA53" s="7"/>
+      <c r="AB53">
         <v>100</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
+    <row r="54" spans="1:28" ht="15" customHeight="1"/>
+    <row r="55" spans="1:28" ht="15" customHeight="1"/>
+    <row r="56" spans="1:28" ht="15" customHeight="1"/>
+    <row r="57" spans="1:28" ht="15" customHeight="1"/>
+    <row r="58" spans="1:28" ht="15" customHeight="1"/>
+    <row r="59" spans="1:28" ht="15" customHeight="1"/>
+    <row r="60" spans="1:28" ht="15" customHeight="1"/>
+    <row r="61" spans="1:28" ht="15" customHeight="1"/>
+    <row r="62" spans="1:28" ht="15" customHeight="1"/>
+    <row r="63" spans="1:28" ht="15" customHeight="1"/>
+    <row r="64" spans="1:28" ht="15" customHeight="1"/>
     <row r="65" ht="15" customHeight="1"/>
     <row r="66" ht="15" customHeight="1"/>
     <row r="67" ht="15" customHeight="1"/>
@@ -9549,220 +9988,69 @@
     <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="C1:AA48"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00DB0093-0086-4C71-B3AE-00E0002D003D}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>T2:AA48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005400B9-00E5-43B6-86DF-00DC006100E8}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N2:N18 N21:N48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00370098-0091-48C3-9FF2-0021005600B6}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B700E9-001C-4A7A-9F1D-001A00530036}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00380096-0007-494F-8125-007400C90049}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000D0073-0006-4557-A9AB-004D00720068}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>T53:U53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005B0057-0028-4325-B936-008F0094005D}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>T52:U52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D700AD-00E2-408D-9877-00F90071007B}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>V52 W52 X49 X50 X51 X52 Y49 Y50 Y51 Y52 Z49 Z50 Z51 Z52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00910032-0028-4E28-AC95-0092002100AB}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>V53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E300FE-0022-4886-B7F2-00AF0080009A}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>T49 T50 T51 U49 U50 U51 V49 V50 V51 W49 W50 W51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00310037-005A-4EB6-A35D-0003008E00B6}">
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>W53 X53 Y53 Z53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BD0030-00D4-4012-B8BC-0027003000CB}">
-            <xm:f>TRUE</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N49</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <autoFilter ref="D1:AB48" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <conditionalFormatting sqref="U2:AB48">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U53:V53">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U52:V52">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52 X52 Y49 Y50 Y51 Y52 Z49 Z50 Z51 Z52 AA49 AA50 AA51 AA52">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W53">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U49 U50 U51 V49 V50 V51 W49 W50 W51 X49 X50 X51">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X53 Y53 Z53 AA53">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O18 O21:O48">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O50">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data-raw/mapping.xlsx
+++ b/data-raw/mapping.xlsx
@@ -1,42 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/legoupil_unhcr_org/Documents/Microsoft Teams Chat Files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824E2056-955F-4EA7-ADBF-A8A5460BA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="570" windowWidth="19065" windowHeight="20265" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mapping_indicator_23" sheetId="1" r:id="rId1"/>
-    <sheet name="mapping_indicator" sheetId="2" r:id="rId2"/>
+    <sheet name="mapping_indicator_23" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="mapping_indicator" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping_indicator_23!$C$1:$AA$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mapping_indicator!$D$1:$AB$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping_indicator_23!$C$1:$AA$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mapping_indicator!$D$1:$AB$48</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -47,20 +26,46 @@
     <author>tc={35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}">
+    <comment ref="A1" authorId="0" xr:uid="{DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Edouard Legoupil  along with the thresholds, I also updated the indicator names here to be the new wording. Thank you so much!</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Regina Saavedra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+@Edouard Legoupil  along with the thresholds, I also updated the indicator names here to be the new wording. Thank you so much!
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="R34" authorId="1" shapeId="0" xr:uid="{35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}">
+    <comment ref="R34" authorId="1" xr:uid="{35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This one is a bit weird. The standard is 50% but we don't necessarily want to go far above it in the same way as we don't want to go far below it...and in this region, we are very far above the threshold in many countries. Do you have any suggestion of how to manage that?</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Regina Saavedra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+This one is a bit weird. The standard is 50% but we don't necessarily want to go far above it in the same way as we don't want to go far below it...and in this region, we are very far above the threshold in many countries. Do you have any suggestion of how to manage that?
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Indicator</t>
   </si>
@@ -76,7 +81,7 @@
     <t>Indicator_lab2</t>
   </si>
   <si>
-    <t>Area of work</t>
+    <t xml:space="preserve">Area of work</t>
   </si>
   <si>
     <t>theme</t>
@@ -151,16 +156,16 @@
     <t>max</t>
   </si>
   <si>
-    <t>1.1 Proportion of individuals seeking international protection who are able to access asylum procedures.</t>
-  </si>
-  <si>
-    <t>Proportion of individuals seeking international protection who are able to access asylum procedures</t>
-  </si>
-  <si>
-    <t>Refugee Status Determination</t>
-  </si>
-  <si>
-    <t>Protection / Case Management</t>
+    <t xml:space="preserve">1.1 Proportion of individuals seeking international protection who are able to access asylum procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of individuals seeking international protection who are able to access asylum procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refugee Status Determination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection / Case Management</t>
   </si>
   <si>
     <t>Impact</t>
@@ -169,7 +174,7 @@
     <t>IA1</t>
   </si>
   <si>
-    <t>IA1: Protect</t>
+    <t xml:space="preserve">IA1: Protect</t>
   </si>
   <si>
     <t>Percent</t>
@@ -184,28 +189,28 @@
     <t>total</t>
   </si>
   <si>
-    <t>1.2 Proportion of PoC who are able to move freely within the country of habitual residence. [GCR 2.1.2]</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who are able to move freely within the country of habitual residence (GCR)</t>
-  </si>
-  <si>
-    <t>Freedom of Movement</t>
-  </si>
-  <si>
-    <t>Protection / Legal</t>
+    <t xml:space="preserve">1.2 Proportion of PoC who are able to move freely within the country of habitual residence. [GCR 2.1.2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who are able to move freely within the country of habitual residence (GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection / Legal</t>
   </si>
   <si>
     <t>C_IMP_002</t>
   </si>
   <si>
-    <t>1.3 Number of persons who are reported refouled</t>
-  </si>
-  <si>
-    <t>Number of persons who are reported refouled</t>
-  </si>
-  <si>
-    <t>Access to Territory, Non-refoulement</t>
+    <t xml:space="preserve">1.3 Number of persons who are reported refouled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of persons who are reported refouled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to Territory, Non-refoulement</t>
   </si>
   <si>
     <t>Number</t>
@@ -217,22 +222,22 @@
     <t>No_standard</t>
   </si>
   <si>
-    <t>2.1 Proportion of PoC living below the national poverty line. [GCR 2.1.1 and SDG 1.2.1]</t>
-  </si>
-  <si>
-    <t>Proportion of PoC living below the national poverty line (SDG &amp; GCR)</t>
-  </si>
-  <si>
-    <t>Livelihoods &amp; Economic Inclusion</t>
-  </si>
-  <si>
-    <t>Assistance &amp; Inclusion</t>
+    <t xml:space="preserve">2.1 Proportion of PoC living below the national poverty line. [GCR 2.1.1 and SDG 1.2.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC living below the national poverty line (SDG &amp; GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livelihoods &amp; Economic Inclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistance &amp; Inclusion</t>
   </si>
   <si>
     <t>IA2</t>
   </si>
   <si>
-    <t>IA2: Assist</t>
+    <t xml:space="preserve">IA2: Assist</t>
   </si>
   <si>
     <t>C_IMP_004</t>
@@ -241,10 +246,10 @@
     <t>less_or_equal</t>
   </si>
   <si>
-    <t>2.2 Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
-  </si>
-  <si>
-    <t>Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
+    <t xml:space="preserve">2.2 Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoCs residing in physically safe and secure settlements with access to basic facilities</t>
   </si>
   <si>
     <t>Shelter</t>
@@ -256,10 +261,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>2.3 Proportion of PoC with access to health services</t>
-  </si>
-  <si>
-    <t>Proportion of PoCs with access to health services (SDG)</t>
+    <t xml:space="preserve">2.3 Proportion of PoC with access to health services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoCs with access to health services (SDG)</t>
   </si>
   <si>
     <t>Health</t>
@@ -268,25 +273,25 @@
     <t>C_IMP_006</t>
   </si>
   <si>
-    <t>3.1 Proportion of PoC who have the right to decent work [GCR, 2.1.1]</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who have the right to work (GCR)</t>
+    <t xml:space="preserve">3.1 Proportion of PoC who have the right to decent work [GCR, 2.1.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who have the right to work (GCR)</t>
   </si>
   <si>
     <t>IA3</t>
   </si>
   <si>
-    <t>IA3: Empower</t>
+    <t xml:space="preserve">IA3: Empower</t>
   </si>
   <si>
     <t>C_IMP_007</t>
   </si>
   <si>
-    <t>3.2a Proportion of PoC enrolled in primary education</t>
-  </si>
-  <si>
-    <t>Proportion of PoC enrolled in primary education (SDG &amp; GCR)</t>
+    <t xml:space="preserve">3.2a Proportion of PoC enrolled in primary education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC enrolled in primary education (SDG &amp; GCR)</t>
   </si>
   <si>
     <t>Education</t>
@@ -301,10 +306,10 @@
     <t>C_IMP_008</t>
   </si>
   <si>
-    <t>3.2b Proportion of PoC enrolled in secondary education</t>
-  </si>
-  <si>
-    <t>Proportion of PoC enrolled in secondary education (SDG &amp; GCR)</t>
+    <t xml:space="preserve">3.2b Proportion of PoC enrolled in secondary education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC enrolled in secondary education (SDG &amp; GCR)</t>
   </si>
   <si>
     <t>3.2b</t>
@@ -313,10 +318,10 @@
     <t>C_IMP_009</t>
   </si>
   <si>
-    <t>3.3 Proportion of PoC feeling safe walking alone in their neighborhood (related SDG 16.1.4).</t>
-  </si>
-  <si>
-    <t>Proportion of PoCs feeling safe walking alone in their neighborhood (SDG)</t>
+    <t xml:space="preserve">3.3 Proportion of PoC feeling safe walking alone in their neighborhood (related SDG 16.1.4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoCs feeling safe walking alone in their neighborhood (SDG)</t>
   </si>
   <si>
     <t>Security</t>
@@ -325,13 +330,13 @@
     <t>C_IMP_010</t>
   </si>
   <si>
-    <t>4.1 Number of refugees who voluntarily return in safety and dignity to their country of origin. [RF/GCR 4.2.1]</t>
-  </si>
-  <si>
-    <t>Number of refugees who voluntarily return in safety and dignity to their country of origin (GCR)</t>
-  </si>
-  <si>
-    <t>Voluntary Repatriation</t>
+    <t xml:space="preserve">4.1 Number of refugees who voluntarily return in safety and dignity to their country of origin. [RF/GCR 4.2.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of refugees who voluntarily return in safety and dignity to their country of origin (GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voluntary Repatriation</t>
   </si>
   <si>
     <t>IA4</t>
@@ -340,16 +345,16 @@
     <t>C_IMP_011</t>
   </si>
   <si>
-    <t>4.2a Number of PoC who departed on resettlement. [GCR 3.1.1]</t>
-  </si>
-  <si>
-    <t>Number of refugees who departed on resettlement opportunities</t>
+    <t xml:space="preserve">4.2a Number of PoC who departed on resettlement. [GCR 3.1.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of refugees who departed on resettlement opportunities</t>
   </si>
   <si>
     <t>Resettlement</t>
   </si>
   <si>
-    <t>IA4: Solve</t>
+    <t xml:space="preserve">IA4: Solve</t>
   </si>
   <si>
     <t>4.2a</t>
@@ -361,13 +366,13 @@
     <t>total(RST)</t>
   </si>
   <si>
-    <t>4.2b Number of PoC who departed through complementary pathways</t>
-  </si>
-  <si>
-    <t>Number of PoC who departed through complementary pathways (GCR)</t>
-  </si>
-  <si>
-    <t>Complementary Pathways</t>
+    <t xml:space="preserve">4.2b Number of PoC who departed through complementary pathways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of PoC who departed through complementary pathways (GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complementary Pathways</t>
   </si>
   <si>
     <t xml:space="preserve">Protection / Case Management </t>
@@ -379,10 +384,10 @@
     <t>C_IMP_013</t>
   </si>
   <si>
-    <t>4.3a Number of stateless persons for whom nationality is granted or confirmed.</t>
-  </si>
-  <si>
-    <t>Number of stateless persons for whom nationality is granted or confirmed</t>
+    <t xml:space="preserve">4.3a Number of stateless persons for whom nationality is granted or confirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of stateless persons for whom nationality is granted or confirmed</t>
   </si>
   <si>
     <t>Statelessness</t>
@@ -397,10 +402,10 @@
     <t>popdata</t>
   </si>
   <si>
-    <t>4.3b Number of refugees for whom residency status is granted or confirmed.</t>
-  </si>
-  <si>
-    <t>Number of refugees for whom residency status is granted or confirmed</t>
+    <t xml:space="preserve">4.3b Number of refugees for whom residency status is granted or confirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of refugees for whom residency status is granted or confirmed</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -415,10 +420,10 @@
     <t>total(naturalisation)</t>
   </si>
   <si>
-    <t>1.1 Proportion of refugees and asylum seekers registered on an individual basis.</t>
-  </si>
-  <si>
-    <t>Proportion of refugees and asylum seekers registered on an individual basis</t>
+    <t xml:space="preserve">1.1 Proportion of refugees and asylum seekers registered on an individual basis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of refugees and asylum seekers registered on an individual basis</t>
   </si>
   <si>
     <t>Registration</t>
@@ -430,16 +435,16 @@
     <t>OA1</t>
   </si>
   <si>
-    <t>OA1: Access/Doc</t>
+    <t xml:space="preserve">OA1: Access/Doc</t>
   </si>
   <si>
     <t>C_OUT_001</t>
   </si>
   <si>
-    <t>1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority. [SDG 16.9.1 - Tier 1]</t>
-  </si>
-  <si>
-    <t>Proportion of children under 5 years of age whose births have been registered with a civil authority (SDG)</t>
+    <t xml:space="preserve">1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority. [SDG 16.9.1 - Tier 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of children under 5 years of age whose births have been registered with a civil authority (SDG)</t>
   </si>
   <si>
     <t>C_OUT_002</t>
@@ -448,25 +453,25 @@
     <t>demographic(under5)</t>
   </si>
   <si>
-    <t>1.3 Proportion of PoC with legally recognized identity documents or credentials [GCR 4.2.2].</t>
-  </si>
-  <si>
-    <t>Proportion of PoC with legally recognized identity documents or credentials (GCR)</t>
+    <t xml:space="preserve">1.3 Proportion of PoC with legally recognized identity documents or credentials [GCR 4.2.2].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC with legally recognized identity documents or credentials (GCR)</t>
   </si>
   <si>
     <t>C_OUT_003</t>
   </si>
   <si>
-    <t>2.1 Average processing time (in days) from registration to first instance asylum decision (disaggregated by individual and group procedures).</t>
-  </si>
-  <si>
-    <t>Average processing time (in days) from registration to first instance asylum decision</t>
+    <t xml:space="preserve">2.1 Average processing time (in days) from registration to first instance asylum decision (disaggregated by individual and group procedures).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average processing time (in days) from registration to first instance asylum decision</t>
   </si>
   <si>
     <t>OA2</t>
   </si>
   <si>
-    <t>OA2: Status</t>
+    <t xml:space="preserve">OA2: Status</t>
   </si>
   <si>
     <t>Average</t>
@@ -475,10 +480,10 @@
     <t>C_OUT_004</t>
   </si>
   <si>
-    <t>2.2 Proportion of individuals undergoing asylum procedures who have access to legal advice or representation.</t>
-  </si>
-  <si>
-    <t>Proportion of individuals undergoing asylum procedures who have access to legal advice or representation</t>
+    <t xml:space="preserve">2.2 Proportion of individuals undergoing asylum procedures who have access to legal advice or representation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of individuals undergoing asylum procedures who have access to legal advice or representation</t>
   </si>
   <si>
     <t>C_OUT_005</t>
@@ -487,28 +492,28 @@
     <t>total_ASY</t>
   </si>
   <si>
-    <t>2.3 Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim.</t>
-  </si>
-  <si>
-    <t>Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
+    <t xml:space="preserve">2.3 Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of individuals undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
   </si>
   <si>
     <t>C_OUT_006</t>
   </si>
   <si>
-    <t>3.1 Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol.</t>
-  </si>
-  <si>
-    <t>Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol</t>
-  </si>
-  <si>
-    <t>Law &amp; Policy</t>
+    <t xml:space="preserve">3.1 Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extent national legal framework is in line with the 1951 Convention and/or its 1967 Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law &amp; Policy</t>
   </si>
   <si>
     <t>OA3</t>
   </si>
   <si>
-    <t>OA3: Policy/Law</t>
+    <t xml:space="preserve">OA3: Policy/Law</t>
   </si>
   <si>
     <t>Text</t>
@@ -517,169 +522,169 @@
     <t>C_OUT_007</t>
   </si>
   <si>
-    <t>3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness.</t>
-  </si>
-  <si>
-    <t>Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
+    <t xml:space="preserve">3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
   </si>
   <si>
     <t>C_OUT_008</t>
   </si>
   <si>
-    <t>4.1 Proportion of PoC who know where to access available GBV services</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who know where to access available GBV services</t>
-  </si>
-  <si>
-    <t>Gender-Based Violence</t>
+    <t xml:space="preserve">4.1 Proportion of PoC who know where to access available GBV services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who know where to access available GBV services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender-Based Violence</t>
   </si>
   <si>
     <t>OA4</t>
   </si>
   <si>
-    <t>OA4: GBV</t>
+    <t xml:space="preserve">OA4: GBV</t>
   </si>
   <si>
     <t>C_OUT_009</t>
   </si>
   <si>
-    <t>4.2 Proportion of POCs who do not accept violence against women.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who do not accept violence against women</t>
+    <t xml:space="preserve">4.2 Proportion of POCs who do not accept violence against women.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who do not accept violence against women</t>
   </si>
   <si>
     <t>C_OUT_010</t>
   </si>
   <si>
-    <t>4.3 Proportion of survivors who are satisfied with SGBV case management services.</t>
-  </si>
-  <si>
-    <t>Proportion of survivors who are satisfied with GBV case management services</t>
+    <t xml:space="preserve">4.3 Proportion of survivors who are satisfied with SGBV case management services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of survivors who are satisfied with GBV case management services</t>
   </si>
   <si>
     <t>C_OUT_011</t>
   </si>
   <si>
-    <t>5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure.</t>
-  </si>
-  <si>
-    <t>Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
-  </si>
-  <si>
-    <t>Child Protection</t>
+    <t xml:space="preserve">5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Protection</t>
   </si>
   <si>
     <t>OA5</t>
   </si>
   <si>
-    <t>OA5: Children</t>
+    <t xml:space="preserve">OA5: Children</t>
   </si>
   <si>
     <t>C_OUT_012</t>
   </si>
   <si>
-    <t>5.2 Proportion of children who participate in community-based child protection programmes</t>
-  </si>
-  <si>
-    <t>Proportion of children who participate in community-based child protection programmes</t>
-  </si>
-  <si>
-    <t>Child Protection, Community-Based Protection</t>
+    <t xml:space="preserve">5.2 Proportion of children who participate in community-based child protection programmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of children who participate in community-based child protection programmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Protection, Community-Based Protection</t>
   </si>
   <si>
     <t>C_OUT_013</t>
   </si>
   <si>
-    <t>5.3 Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
-  </si>
-  <si>
-    <t>Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
+    <t xml:space="preserve">5.3 Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of unaccompanied and separated children who are in an appropriate alternative care arrangement</t>
   </si>
   <si>
     <t>C_OUT_014</t>
   </si>
   <si>
-    <t>6.1 Number of PoC arrested or detained related to immigration control or legal status</t>
-  </si>
-  <si>
-    <t>Number of PoC arrested or detained related to immigration control or legal status</t>
+    <t xml:space="preserve">6.1 Number of PoC arrested or detained related to immigration control or legal status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of PoC arrested or detained related to immigration control or legal status</t>
   </si>
   <si>
     <t>OA6</t>
   </si>
   <si>
-    <t>OA6: Justice</t>
+    <t xml:space="preserve">OA6: Justice</t>
   </si>
   <si>
     <t>C_OUT_015</t>
   </si>
   <si>
-    <t>7.1 Proportion of PoC who participate meaningfully across all phases of the OMC.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who participate meaningfully across all phases of the OMC</t>
-  </si>
-  <si>
-    <t>Accountability to Affected Populations</t>
-  </si>
-  <si>
-    <t>Community-Based Protection &amp; Accountability to Affected Populations</t>
+    <t xml:space="preserve">7.1 Proportion of PoC who participate meaningfully across all phases of the OMC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who participate meaningfully across all phases of the OMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accountability to Affected Populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community-Based Protection &amp; Accountability to Affected Populations</t>
   </si>
   <si>
     <t>OA7</t>
   </si>
   <si>
-    <t>OA7: Community</t>
+    <t xml:space="preserve">OA7: Community</t>
   </si>
   <si>
     <t>C_OUT_016</t>
   </si>
   <si>
-    <t>7.2 Proportion of PoC who have access to effective feedback and response mechanisms.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who have access to effective feedback and response mechanisms</t>
+    <t xml:space="preserve">7.2 Proportion of PoC who have access to effective feedback and response mechanisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who have access to effective feedback and response mechanisms</t>
   </si>
   <si>
     <t>C_OUT_017</t>
   </si>
   <si>
-    <t>7.3 Proportion (and number) of active female participants on leadership/management structures.</t>
-  </si>
-  <si>
-    <t>Proportion (and number) of active female participants on leadership/management structures</t>
-  </si>
-  <si>
-    <t>Community Structures</t>
+    <t xml:space="preserve">7.3 Proportion (and number) of active female participants on leadership/management structures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion (and number) of active female participants on leadership/management structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Structures</t>
   </si>
   <si>
     <t>C_OUT_018</t>
   </si>
   <si>
-    <t>8.1 Proportion of PoC in need that receive cash transfers or in-kind assistance.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC in need that receive cash transfers or in-kind assistance</t>
-  </si>
-  <si>
-    <t>Basic Needs</t>
+    <t xml:space="preserve">8.1 Proportion of PoC in need that receive cash transfers or in-kind assistance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC in need that receive cash transfers or in-kind assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Needs</t>
   </si>
   <si>
     <t>OA8</t>
   </si>
   <si>
-    <t>OA8: Well-being</t>
+    <t xml:space="preserve">OA8: Well-being</t>
   </si>
   <si>
     <t>C_OUT_019</t>
   </si>
   <si>
-    <t>8.2 Proportion of PoC with primary reliance on clean (cooking) fuels and technology [SDG 7.1.2 Tier 1]</t>
-  </si>
-  <si>
-    <t>Proportion of PoC with primary reliance on clean (cooking) fuels and technology (SDG)</t>
+    <t xml:space="preserve">8.2 Proportion of PoC with primary reliance on clean (cooking) fuels and technology [SDG 7.1.2 Tier 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC with primary reliance on clean (cooking) fuels and technology (SDG)</t>
   </si>
   <si>
     <t>Energy</t>
@@ -688,148 +693,148 @@
     <t>C_OUT_020</t>
   </si>
   <si>
-    <t>9.1 Proportion of PoCs living in habitable and affordable housing.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC living in habitable and affordable housing</t>
+    <t xml:space="preserve">9.1 Proportion of PoCs living in habitable and affordable housing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC living in habitable and affordable housing</t>
   </si>
   <si>
     <t>OA9</t>
   </si>
   <si>
-    <t>OA9: Housing</t>
+    <t xml:space="preserve">OA9: Housing</t>
   </si>
   <si>
     <t>C_OUT_021</t>
   </si>
   <si>
-    <t>9.2 Proportion of PoC that have energy to ensure lighting (close to Sphere).</t>
-  </si>
-  <si>
-    <t>Proportion of PoC that have energy to ensure lighting</t>
+    <t xml:space="preserve">9.2 Proportion of PoC that have energy to ensure lighting (close to Sphere).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC that have energy to ensure lighting</t>
   </si>
   <si>
     <t>C_OUT_022</t>
   </si>
   <si>
-    <t>10.1 Proportion of children aged 9 months to five years who have received measles vaccination.</t>
-  </si>
-  <si>
-    <t>Proportion of children aged 9 months to 5 years who have received measles vaccination</t>
+    <t xml:space="preserve">10.1 Proportion of children aged 9 months to five years who have received measles vaccination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of children aged 9 months to 5 years who have received measles vaccination</t>
   </si>
   <si>
     <t>OA10</t>
   </si>
   <si>
-    <t>OA10: Health</t>
+    <t xml:space="preserve">OA10: Health</t>
   </si>
   <si>
     <t>C_OUT_023</t>
   </si>
   <si>
-    <t>10.2. Proportion of births attended by skilled health personnel. [SDG 3.1.2 Tier 1]</t>
-  </si>
-  <si>
-    <t>Proportion of births attended by skilled health personnel (SDG)</t>
+    <t xml:space="preserve">10.2. Proportion of births attended by skilled health personnel. [SDG 3.1.2 Tier 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of births attended by skilled health personnel (SDG)</t>
   </si>
   <si>
     <t>C_OUT_024</t>
   </si>
   <si>
-    <t>11.1 Proportion of PoC enrolled in tertiary and higher education.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC enrolled in tertiary and higher education</t>
+    <t xml:space="preserve">11.1 Proportion of PoC enrolled in tertiary and higher education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC enrolled in tertiary and higher education</t>
   </si>
   <si>
     <t>OA11</t>
   </si>
   <si>
-    <t>OA11: Education</t>
+    <t xml:space="preserve">OA11: Education</t>
   </si>
   <si>
     <t>C_OUT_025</t>
   </si>
   <si>
-    <t>11.2 Proportion of PoC enrolled in the national education system. [GCR 2.2.1]</t>
-  </si>
-  <si>
-    <t>Proportion of PoC enrolled in the national education system</t>
+    <t xml:space="preserve">11.2 Proportion of PoC enrolled in the national education system. [GCR 2.2.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC enrolled in the national education system</t>
   </si>
   <si>
     <t>C_OUT_026</t>
   </si>
   <si>
-    <t>12.1 Proportion of PoC using at least basic drinking water services [linked to SDG 6.1.1].</t>
-  </si>
-  <si>
-    <t>Proportion of PoC using at least basic drinking water services (SDG)</t>
-  </si>
-  <si>
-    <t>Water, Sanitation &amp; Hygiene</t>
+    <t xml:space="preserve">12.1 Proportion of PoC using at least basic drinking water services [linked to SDG 6.1.1].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC using at least basic drinking water services (SDG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water, Sanitation &amp; Hygiene</t>
   </si>
   <si>
     <t>OA12</t>
   </si>
   <si>
-    <t>OA12: WASH</t>
+    <t xml:space="preserve">OA12: WASH</t>
   </si>
   <si>
     <t>C_OUT_027</t>
   </si>
   <si>
-    <t>12.2 Proportion of PoC with access to a safe household toilet [linked to SDG 6.2.1].</t>
-  </si>
-  <si>
-    <t>Proportion of PoC with access to a safe household toilet (SDG)</t>
+    <t xml:space="preserve">12.2 Proportion of PoC with access to a safe household toilet [linked to SDG 6.2.1].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC with access to a safe household toilet (SDG)</t>
   </si>
   <si>
     <t>C_OUT_028</t>
   </si>
   <si>
-    <t>13.1. Proportion of PoC with an account at a bank or other financial institution or with a mobile-money-service provider [SDG 8.10.2 Tier 1].</t>
-  </si>
-  <si>
-    <t>Proportion of PoC with an account at a bank or other financial institution or with a mobile-money provider (SDG)</t>
+    <t xml:space="preserve">13.1. Proportion of PoC with an account at a bank or other financial institution or with a mobile-money-service provider [SDG 8.10.2 Tier 1].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC with an account at a bank or other financial institution or with a mobile-money provider (SDG)</t>
   </si>
   <si>
     <t>OA13</t>
   </si>
   <si>
-    <t>OA13 Livelihood</t>
+    <t xml:space="preserve">OA13 Livelihood</t>
   </si>
   <si>
     <t>C_OUT_029</t>
   </si>
   <si>
-    <t>13.2. Proportion of PoC who self-report positive changes in their income compared to previous year.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC who self-report positive changes in their income compared to the prevoius year</t>
+    <t xml:space="preserve">13.2. Proportion of PoC who self-report positive changes in their income compared to previous year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC who self-report positive changes in their income compared to the prevoius year</t>
   </si>
   <si>
     <t>C_OUT_030</t>
   </si>
   <si>
-    <t>13.3 Proportion of PoC (working age) who are unemployed.</t>
-  </si>
-  <si>
-    <t>Proportion of PoC (working age) who are unemployed (SDG)</t>
+    <t xml:space="preserve">13.3 Proportion of PoC (working age) who are unemployed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of PoC (working age) who are unemployed (SDG)</t>
   </si>
   <si>
     <t>C_OUT_031</t>
   </si>
   <si>
-    <t>14.1 Proportion of returnees with legally recognized identity documents or credentials [GCR 4.2.2].</t>
-  </si>
-  <si>
-    <t>Proportion of returnees with legally recognized identity documents or credentials (GCR)</t>
+    <t xml:space="preserve">14.1 Proportion of returnees with legally recognized identity documents or credentials [GCR 4.2.2].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of returnees with legally recognized identity documents or credentials (GCR)</t>
   </si>
   <si>
     <t>OA14</t>
   </si>
   <si>
-    <t>OA14: Return</t>
+    <t xml:space="preserve">OA14: Return</t>
   </si>
   <si>
     <t>C_OUT_032</t>
@@ -838,13 +843,13 @@
     <t>indic_short</t>
   </si>
   <si>
-    <t>1.1 Proportion of people seeking international protection who are able to access asylum procedures</t>
+    <t xml:space="preserve">1.1 Proportion of people seeking international protection who are able to access asylum procedures</t>
   </si>
   <si>
     <t>Pro_AS_Acc</t>
   </si>
   <si>
-    <t>1.2 Proportion of people who are able to move freely within the country of habitual residence</t>
+    <t xml:space="preserve">1.2 Proportion of people who are able to move freely within the country of habitual residence</t>
   </si>
   <si>
     <t>Pro_PoC_Move</t>
@@ -853,145 +858,145 @@
     <t>Num_Refouled</t>
   </si>
   <si>
-    <t>2.1 Proportion of people living below the national poverty line</t>
+    <t xml:space="preserve">2.1 Proportion of people living below the national poverty line</t>
   </si>
   <si>
     <t>Pro_PoC_Pov</t>
   </si>
   <si>
-    <t>2.2 Proportion of people residing in physically safe and secure settlements with access to basic facilities</t>
+    <t xml:space="preserve">2.2 Proportion of people residing in physically safe and secure settlements with access to basic facilities</t>
   </si>
   <si>
     <t>Pro_PoC_Safe</t>
   </si>
   <si>
-    <t>2.3 Proportion of people with access to health services</t>
+    <t xml:space="preserve">2.3 Proportion of people with access to health services</t>
   </si>
   <si>
     <t>Pro_PoC_Health</t>
   </si>
   <si>
-    <t>3.1 Proportion of people who have the right to decent work</t>
+    <t xml:space="preserve">3.1 Proportion of people who have the right to decent work</t>
   </si>
   <si>
     <t>Pro_PoC_Work</t>
   </si>
   <si>
-    <t>3.2a Proportion of children and young people enrolled in primary education</t>
+    <t xml:space="preserve">3.2a Proportion of children and young people enrolled in primary education</t>
   </si>
   <si>
     <t>Pro_Pri_Edu</t>
   </si>
   <si>
-    <t>3.2b Proportion of children and young people enrolled in secondary education</t>
+    <t xml:space="preserve">3.2b Proportion of children and young people enrolled in secondary education</t>
   </si>
   <si>
     <t>Pro_Sec_Edu</t>
   </si>
   <si>
-    <t>3.3 Proportion of people that feel safe walking alone in their neighbourhood after dark</t>
+    <t xml:space="preserve">3.3 Proportion of people that feel safe walking alone in their neighbourhood after dark</t>
   </si>
   <si>
     <t>Pro_Safe_Nbr</t>
   </si>
   <si>
-    <t>4.1 Number of refugees who return voluntarily and in safety and dignity to their country of origin</t>
+    <t xml:space="preserve">4.1 Number of refugees who return voluntarily and in safety and dignity to their country of origin</t>
   </si>
   <si>
     <t>Num_Returns</t>
   </si>
   <si>
-    <t>4.2a Number of refugees who departed on resettlement opportunities</t>
+    <t xml:space="preserve">4.2a Number of refugees who departed on resettlement opportunities</t>
   </si>
   <si>
     <t>Num_Resettled</t>
   </si>
   <si>
-    <t>4.2b Number of people who departed through complementary pathways</t>
+    <t xml:space="preserve">4.2b Number of people who departed through complementary pathways</t>
   </si>
   <si>
     <t>Num_Complement</t>
   </si>
   <si>
-    <t>4.3a Number of stateless persons for whom nationality is granted or confirmed</t>
+    <t xml:space="preserve">4.3a Number of stateless persons for whom nationality is granted or confirmed</t>
   </si>
   <si>
     <t>Num_Stateless</t>
   </si>
   <si>
-    <t>4.3b Number of refugees for whom residency status is granted or confirmed</t>
+    <t xml:space="preserve">4.3b Number of refugees for whom residency status is granted or confirmed</t>
   </si>
   <si>
     <t>Num_Residents</t>
   </si>
   <si>
-    <t>1.1 Proportion of refugees and asylum-seekers registered on an individual basis</t>
+    <t xml:space="preserve">1.1 Proportion of refugees and asylum-seekers registered on an individual basis</t>
   </si>
   <si>
     <t>Pro_Ind_Reg</t>
   </si>
   <si>
-    <t>1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority</t>
+    <t xml:space="preserve">1.2 Proportion of children under 5 years of age whose births have been registered with a civil authority</t>
   </si>
   <si>
     <t>Pro_Ch_Birth</t>
   </si>
   <si>
-    <t>1.3 Proportion of people with legally recognized identity documents or credentials</t>
+    <t xml:space="preserve">1.3 Proportion of people with legally recognized identity documents or credentials</t>
   </si>
   <si>
     <t>Pro_PoC_ID</t>
   </si>
   <si>
-    <t>2.1 Average processing time (in days) from registration to first instance asylum decision</t>
+    <t xml:space="preserve">2.1 Average processing time (in days) from registration to first instance asylum decision</t>
   </si>
   <si>
     <t>Avg_Proc_Tim</t>
   </si>
   <si>
-    <t>2.2  Proportion of people undergoing asylum procedures who have access to legal representation</t>
+    <t xml:space="preserve">2.2  Proportion of people undergoing asylum procedures who have access to legal representation</t>
   </si>
   <si>
     <t>Pro_Leg_Adv</t>
   </si>
   <si>
-    <t>2.3 Proportion of people undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
+    <t xml:space="preserve">2.3 Proportion of people undergoing asylum procedures who have access to an effective appeal mechanism after first instance rejection of their claim</t>
   </si>
   <si>
     <t>Pro_Eff_Appeal</t>
   </si>
   <si>
-    <t>3.1 Extent national legal framework is in line with the 1951 Convention</t>
+    <t xml:space="preserve">3.1 Extent national legal framework is in line with the 1951 Convention</t>
   </si>
   <si>
     <t>Ext_Conv_1951</t>
   </si>
   <si>
-    <t>3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
+    <t xml:space="preserve">3.2 Extent national legal framework is in line with the 1961 Convention on the Reduction of Statelessness</t>
   </si>
   <si>
     <t>Ext_Conv_1961</t>
   </si>
   <si>
-    <t>4.1 Proportion of people who know where to access available GBV services</t>
+    <t xml:space="preserve">4.1 Proportion of people who know where to access available GBV services</t>
   </si>
   <si>
     <t>Pro_GBVS_Acc</t>
   </si>
   <si>
-    <t>4.2 Proportion of people who do not accept violence against women</t>
+    <t xml:space="preserve">4.2 Proportion of people who do not accept violence against women</t>
   </si>
   <si>
     <t>Pro_No_VAW</t>
   </si>
   <si>
-    <t>4.3 Proportion of people who are satisfied with GBV case management service</t>
+    <t xml:space="preserve">4.3 Proportion of people who are satisfied with GBV case management service</t>
   </si>
   <si>
     <t>Pro_SGBV_Sat</t>
   </si>
   <si>
-    <t>5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
+    <t xml:space="preserve">5.1 Proportion of children at heightened risk who are supported by a Best Interests Procedure</t>
   </si>
   <si>
     <t>Pro_Ch_Best</t>
@@ -1000,124 +1005,124 @@
     <t>Pro_Ch_Comm</t>
   </si>
   <si>
-    <t>5.3 Proportion of unaccompanied and separated children who are in an alternative care arrangement</t>
+    <t xml:space="preserve">5.3 Proportion of unaccompanied and separated children who are in an alternative care arrangement</t>
   </si>
   <si>
     <t>Pro_Ch_Care</t>
   </si>
   <si>
-    <t>6.1 Number of people arrested or detained related to immigration control or legal status</t>
+    <t xml:space="preserve">6.1 Number of people arrested or detained related to immigration control or legal status</t>
   </si>
   <si>
     <t>Num_Imm_Arrests</t>
   </si>
   <si>
-    <t>7.1 Extent participation of displaced and stateless people across programme phases is supported</t>
+    <t xml:space="preserve">7.1 Extent participation of displaced and stateless people across programme phases is supported</t>
   </si>
   <si>
     <t>Ext_Prog_Part</t>
   </si>
   <si>
-    <t>Extent participation of displaced and stateless people across programme</t>
-  </si>
-  <si>
-    <t>7.2 Proportion of people who have access to safe feedback and response mechanisms</t>
+    <t xml:space="preserve">Extent participation of displaced and stateless people across programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 Proportion of people who have access to safe feedback and response mechanisms</t>
   </si>
   <si>
     <t>Pro_Fdbk_Acc</t>
   </si>
   <si>
-    <t>7.3 Proportion of women participating in leadership/management structures</t>
+    <t xml:space="preserve">7.3 Proportion of women participating in leadership/management structures</t>
   </si>
   <si>
     <t>Pro_Fem_Ldrshp</t>
   </si>
   <si>
-    <t>8.1 Proportion of people that receive cash transfers and/or non-food items</t>
+    <t xml:space="preserve">8.1 Proportion of people that receive cash transfers and/or non-food items</t>
   </si>
   <si>
     <t>Pro_Aid_Rec</t>
   </si>
   <si>
-    <t>8.2 Proportion of people with primary reliance on clean (cooking) fuels and technology</t>
+    <t xml:space="preserve">8.2 Proportion of people with primary reliance on clean (cooking) fuels and technology</t>
   </si>
   <si>
     <t>Pro_Clean_Fuel</t>
   </si>
   <si>
-    <t>9.1 Proportion of people living in habitable and affordable housing</t>
+    <t xml:space="preserve">9.1 Proportion of people living in habitable and affordable housing</t>
   </si>
   <si>
     <t>Pro_Hab_House</t>
   </si>
   <si>
-    <t>9.2 Proportion of people that have energy to ensure lighting</t>
+    <t xml:space="preserve">9.2 Proportion of people that have energy to ensure lighting</t>
   </si>
   <si>
     <t>Pro_Energy_Acc</t>
   </si>
   <si>
-    <t>10.1 Proportion of children aged 9 months to five years who have received measles vaccination</t>
+    <t xml:space="preserve">10.1 Proportion of children aged 9 months to five years who have received measles vaccination</t>
   </si>
   <si>
     <t>Pro_Meas_Vac</t>
   </si>
   <si>
-    <t>10.2. Proportion of births attended by skilled health personnel</t>
+    <t xml:space="preserve">10.2. Proportion of births attended by skilled health personnel</t>
   </si>
   <si>
     <t>Pro_Birth_Att</t>
   </si>
   <si>
-    <t>11.1 Proportion of young people enrolled in tertiary and higher education</t>
+    <t xml:space="preserve">11.1 Proportion of young people enrolled in tertiary and higher education</t>
   </si>
   <si>
     <t>Pro_Ter_Edu</t>
   </si>
   <si>
-    <t>11.2 Proportion of children and young people enrolled in the national education system</t>
+    <t xml:space="preserve">11.2 Proportion of children and young people enrolled in the national education system</t>
   </si>
   <si>
     <t>Pro_Nat_Edu</t>
   </si>
   <si>
-    <t>12.1 Proportion of people using at least basic drinking water services</t>
+    <t xml:space="preserve">12.1 Proportion of people using at least basic drinking water services</t>
   </si>
   <si>
     <t>Pro_Basic_Wat</t>
   </si>
   <si>
-    <t>12.2 Proportion of people with access to a safe household toilet</t>
+    <t xml:space="preserve">12.2 Proportion of people with access to a safe household toilet</t>
   </si>
   <si>
     <t>Pro_Safe_Toi</t>
   </si>
   <si>
-    <t>13.1 Proportion of people with an account at a bank or other financial institution or with a mobile-money-service provider</t>
+    <t xml:space="preserve">13.1 Proportion of people with an account at a bank or other financial institution or with a mobile-money-service provider</t>
   </si>
   <si>
     <t>Pro_Bank_Acc</t>
   </si>
   <si>
-    <t>13.2 Proportion of people who self-report positive changes in their income compared to previous year</t>
+    <t xml:space="preserve">13.2 Proportion of people who self-report positive changes in their income compared to previous year</t>
   </si>
   <si>
     <t>Pro_Pos_Inc</t>
   </si>
   <si>
-    <t>13.3 Proportion of people (working age) who are unemployed</t>
+    <t xml:space="preserve">13.3 Proportion of people (working age) who are unemployed</t>
   </si>
   <si>
     <t>Pro_Unemp</t>
   </si>
   <si>
-    <t>14.1 Proportion of returnees with legally recognized identity documents or credentials</t>
+    <t xml:space="preserve">14.1 Proportion of returnees with legally recognized identity documents or credentials</t>
   </si>
   <si>
     <t>Pro_Return_ID</t>
   </si>
   <si>
-    <t>15.1 Number of refugees submitted for resettlement by UNHCR</t>
+    <t xml:space="preserve">15.1 Number of refugees submitted for resettlement by UNHCR</t>
   </si>
   <si>
     <t>Num_Res_Sub</t>
@@ -1126,13 +1131,13 @@
     <t>OA15</t>
   </si>
   <si>
-    <t>OA15: Resettlement</t>
+    <t xml:space="preserve">OA15: Resettlement</t>
   </si>
   <si>
     <t>C_OUT_034</t>
   </si>
   <si>
-    <t>15.2 Average processing time from resettlement submission to departure</t>
+    <t xml:space="preserve">15.2 Average processing time from resettlement submission to departure</t>
   </si>
   <si>
     <t>Avg_Res_Tim</t>
@@ -1141,7 +1146,7 @@
     <t>C_OUT_035</t>
   </si>
   <si>
-    <t>15.3 Number of people admitted through complementary pathways from the host country</t>
+    <t xml:space="preserve">15.3 Number of people admitted through complementary pathways from the host country</t>
   </si>
   <si>
     <t>Num_Comp_Path</t>
@@ -1150,7 +1155,7 @@
     <t>C_OUT_036</t>
   </si>
   <si>
-    <t>16.1 Proportion of people with secure tenure rights to housing and/or land</t>
+    <t xml:space="preserve">16.1 Proportion of people with secure tenure rights to housing and/or land</t>
   </si>
   <si>
     <t>Pro_Tenure_Rights</t>
@@ -1159,13 +1164,13 @@
     <t>OA16</t>
   </si>
   <si>
-    <t>OA16: Integrate</t>
+    <t xml:space="preserve">OA16: Integrate</t>
   </si>
   <si>
     <t>C_OUT_037</t>
   </si>
   <si>
-    <t>16.2 Proportion of people covered by national social protection systems</t>
+    <t xml:space="preserve">16.2 Proportion of people covered by national social protection systems</t>
   </si>
   <si>
     <t>Pro_Soc_Prot</t>
@@ -1177,113 +1182,68 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color indexed="2"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Lato"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Lato"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Lato"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Lato"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1292,12 +1252,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1324,7 +1278,16 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1333,10 +1296,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1365,11 +1325,11 @@
   </fills>
   <borders count="8">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -1384,7 +1344,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1399,7 +1359,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -1414,7 +1374,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -1429,7 +1389,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1441,8 +1401,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1451,394 +1411,190 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="6" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="53">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="6" borderId="3" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="6" borderId="4" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="11" borderId="2" numFmtId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="12" borderId="2" numFmtId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="13" borderId="2" numFmtId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="6" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="5" borderId="7" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="5" borderId="2" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="2" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="2" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="6" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="7" borderId="2" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="2" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="7" borderId="2" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="8" applyFont="1"/>
+    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="9" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="9" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="9" borderId="6" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="9" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
-    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Good" xfId="8" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
+    <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
+    <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Warning Text" xfId="7" builtinId="11"/>
+    <cellStyle name="Warning Text" xfId="8" builtinId="11"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1846,13 +1602,295 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Edouard Legoupil" id="{971F74F5-8F9E-4DC0-B13E-4795C0DBF105}" userId="legoupil@unhcr.org" providerId="PeoplePicker"/>
-  <person displayName="Regina Saavedra" id="{768B8EC0-D4F2-43B9-9342-3DD001A9E101}" userId="S::saavedra@unhcr.org::3890f5d1-20b0-4548-94a4-4b53e87baefd" providerId="AD"/>
+  <person displayName="Regina Saavedra" id="{12773D6A-89B4-0D76-7257-09EB00FF41A3}" userId="S::saavedra@unhcr.org::3890f5d1-20b0-4548-94a4-4b53e87baefd" providerId="AD"/>
 </personList>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -2055,39 +2093,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-04-08T10:19:52.38" personId="{768B8EC0-D4F2-43B9-9342-3DD001A9E101}" id="{DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}">
-    <text>@Edouard Legoupil  along with the thresholds, I also updated the indicator names here to be the new wording. Thank you so much!</text>
-    <mentions>
-      <mention mentionpersonId="{971F74F5-8F9E-4DC0-B13E-4795C0DBF105}" mentionId="{5DCB4DD8-29EE-48EC-A4A5-ED551491EB8F}" startIndex="0" length="17"/>
-    </mentions>
+  <threadedComment ref="A1" dT="2024-04-08T10:19:52.38Z" personId="{12773D6A-89B4-0D76-7257-09EB00FF41A3}" id="{DD20F4E7-6689-4E14-9BEA-5E38F99A7B17}" done="0">
+    <text xml:space="preserve">@Edouard Legoupil  along with the thresholds, I also updated the indicator names here to be the new wording. Thank you so much!
+</text>
   </threadedComment>
-  <threadedComment ref="R34" dT="2024-04-08T09:29:44.61" personId="{768B8EC0-D4F2-43B9-9342-3DD001A9E101}" id="{35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}">
-    <text>This one is a bit weird. The standard is 50% but we don't necessarily want to go far above it in the same way as we don't want to go far below it...and in this region, we are very far above the threshold in many countries. Do you have any suggestion of how to manage that?</text>
+  <threadedComment ref="R34" dT="2024-04-08T09:29:44.61Z" personId="{12773D6A-89B4-0D76-7257-09EB00FF41A3}" id="{35FD331B-ACFF-4BF5-ACD4-AE1467675FAF}" done="0">
+    <text xml:space="preserve">This one is a bit weird. The standard is 50% but we don't necessarily want to go far above it in the same way as we don't want to go far below it...and in this region, we are very far above the threshold in many countries. Do you have any suggestion of how to manage that?
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
-    <col min="3" max="5" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="87"/>
+    <col customWidth="1" min="2" max="2" width="64.5703125"/>
+    <col customWidth="1" min="3" max="5" width="17.28515625"/>
+    <col customWidth="1" min="8" max="8" width="28.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2242,7 +2279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="4" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2415,7 @@
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
     </row>
-    <row r="5" spans="1:27" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
@@ -2404,7 +2441,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="22">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="J5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2458,7 +2495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -2542,7 +2579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -2618,7 +2655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="28" t="s">
         <v>66</v>
       </c>
@@ -2644,7 +2681,7 @@
         <v>69</v>
       </c>
       <c r="I8" s="31">
-        <v>3.1</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="J8" s="31" t="str">
         <f t="shared" si="0"/>
@@ -2692,7 +2729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2774,7 +2811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -2856,7 +2893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -2882,7 +2919,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="10">
-        <v>3.3</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="J11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2940,7 +2977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -3004,7 +3041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -3068,7 +3105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
@@ -3134,7 +3171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>103</v>
       </c>
@@ -3198,7 +3235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
@@ -3262,7 +3299,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
@@ -3334,7 +3371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>122</v>
       </c>
@@ -3418,7 +3455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
@@ -3498,7 +3535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>129</v>
       </c>
@@ -3524,7 +3561,7 @@
         <v>132</v>
       </c>
       <c r="I20" s="10">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="J20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3566,7 +3603,7 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -3632,7 +3669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
@@ -3704,7 +3741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>142</v>
       </c>
@@ -3730,7 +3767,7 @@
         <v>146</v>
       </c>
       <c r="I23" s="10">
-        <v>3.1</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="J23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3774,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -3800,7 +3837,7 @@
         <v>146</v>
       </c>
       <c r="I24" s="10">
-        <v>3.2</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3844,7 +3881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>152</v>
       </c>
@@ -3926,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>158</v>
       </c>
@@ -3952,7 +3989,7 @@
         <v>156</v>
       </c>
       <c r="I26" s="10">
-        <v>4.2</v>
+        <v>4.2000000000000002</v>
       </c>
       <c r="J26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4004,7 +4041,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>161</v>
       </c>
@@ -4030,7 +4067,7 @@
         <v>156</v>
       </c>
       <c r="I27" s="10">
-        <v>4.3</v>
+        <v>4.2999999999999998</v>
       </c>
       <c r="J27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4084,7 +4121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>164</v>
       </c>
@@ -4164,7 +4201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
@@ -4190,7 +4227,7 @@
         <v>168</v>
       </c>
       <c r="I29" s="10">
-        <v>5.2</v>
+        <v>5.2000000000000002</v>
       </c>
       <c r="J29" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4246,7 +4283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>174</v>
       </c>
@@ -4272,7 +4309,7 @@
         <v>168</v>
       </c>
       <c r="I30" s="10">
-        <v>5.3</v>
+        <v>5.2999999999999998</v>
       </c>
       <c r="J30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4326,7 +4363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="31" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>177</v>
       </c>
@@ -4352,7 +4389,7 @@
         <v>180</v>
       </c>
       <c r="I31" s="22">
-        <v>6.1</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="J31" s="22" t="str">
         <f t="shared" si="1"/>
@@ -4392,7 +4429,7 @@
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
     </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>182</v>
       </c>
@@ -4418,7 +4455,7 @@
         <v>187</v>
       </c>
       <c r="I32" s="10">
-        <v>7.1</v>
+        <v>7.0999999999999996</v>
       </c>
       <c r="J32" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4472,7 +4509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>189</v>
       </c>
@@ -4498,7 +4535,7 @@
         <v>187</v>
       </c>
       <c r="I33" s="10">
-        <v>7.2</v>
+        <v>7.2000000000000002</v>
       </c>
       <c r="J33" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4552,7 +4589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>192</v>
       </c>
@@ -4578,7 +4615,7 @@
         <v>187</v>
       </c>
       <c r="I34" s="10">
-        <v>7.3</v>
+        <v>7.2999999999999998</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4630,7 +4667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>196</v>
       </c>
@@ -4656,7 +4693,7 @@
         <v>200</v>
       </c>
       <c r="I35" s="10">
-        <v>8.1</v>
+        <v>8.0999999999999996</v>
       </c>
       <c r="J35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4710,7 +4747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>202</v>
       </c>
@@ -4790,7 +4827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>206</v>
       </c>
@@ -4816,7 +4853,7 @@
         <v>209</v>
       </c>
       <c r="I37" s="10">
-        <v>9.1</v>
+        <v>9.0999999999999996</v>
       </c>
       <c r="J37" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4872,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>211</v>
       </c>
@@ -4954,7 +4991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>214</v>
       </c>
@@ -5028,7 +5065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>219</v>
       </c>
@@ -5102,7 +5139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -5178,7 +5215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>227</v>
       </c>
@@ -5204,7 +5241,7 @@
         <v>225</v>
       </c>
       <c r="I42" s="10">
-        <v>11.2</v>
+        <v>11.199999999999999</v>
       </c>
       <c r="J42" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5254,7 +5291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>230</v>
       </c>
@@ -5336,7 +5373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>236</v>
       </c>
@@ -5362,7 +5399,7 @@
         <v>234</v>
       </c>
       <c r="I44" s="10">
-        <v>12.2</v>
+        <v>12.199999999999999</v>
       </c>
       <c r="J44" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5418,7 +5455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>239</v>
       </c>
@@ -5498,7 +5535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15" customHeight="1">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>244</v>
       </c>
@@ -5524,7 +5561,7 @@
         <v>242</v>
       </c>
       <c r="I46" s="10">
-        <v>13.2</v>
+        <v>13.199999999999999</v>
       </c>
       <c r="J46" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5580,7 +5617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15" customHeight="1">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>247</v>
       </c>
@@ -5606,7 +5643,7 @@
         <v>242</v>
       </c>
       <c r="I47" s="10">
-        <v>13.3</v>
+        <v>13.300000000000001</v>
       </c>
       <c r="J47" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5656,7 +5693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15" customHeight="1">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>250</v>
       </c>
@@ -5766,59 +5803,114 @@
     <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="C1:AA48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="T2:AA48">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N18 N21:N48">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <autoFilter ref="C1:AA48"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{0053005D-001F-482F-B138-002C004C0075}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00BA007A-0002-4F59-BD76-009300A10053}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00420066-00B9-4442-8BBA-000B00A700DF}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T2:AA48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BE00FA-0064-4349-81C6-008300DD00F0}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N2:N18 N21:N48</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="69.85546875"/>
+    <col customWidth="1" min="2" max="2" width="25"/>
+    <col customWidth="1" min="3" max="3" width="7.28515625"/>
+    <col customWidth="1" min="4" max="4" width="16.42578125"/>
+    <col customWidth="1" min="5" max="5" width="17.42578125"/>
+    <col customWidth="1" min="6" max="6" width="17.28515625"/>
+    <col customWidth="1" min="7" max="8" width="8.85546875"/>
+    <col customWidth="1" min="9" max="9" width="15.7109375"/>
+    <col customWidth="1" min="10" max="10" width="8.85546875"/>
+    <col customWidth="1" min="11" max="11" width="13.5703125"/>
+    <col customWidth="1" min="12" max="13" width="8.85546875"/>
+    <col customWidth="1" min="14" max="14" width="19.140625"/>
+    <col customWidth="1" min="15" max="15" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5904,8 +5996,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1">
-      <c r="A2" s="54" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -5936,7 +6028,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K9" si="0">_xlfn.CONCAT(H2,"-",J2)</f>
+        <f t="shared" ref="K2:K9" si="2">_xlfn.CONCAT(H2,"-",J2)</f>
         <v>IA1-1.1</v>
       </c>
       <c r="L2" s="11">
@@ -5979,8 +6071,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1">
-      <c r="A3" s="54" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6011,7 +6103,7 @@
         <v>1.2</v>
       </c>
       <c r="K3" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA1-1.2</v>
       </c>
       <c r="L3" s="11">
@@ -6056,8 +6148,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="55" t="s">
+    <row r="4" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -6088,7 +6180,7 @@
         <v>1.3</v>
       </c>
       <c r="K4" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA1-1.3</v>
       </c>
       <c r="L4" s="23">
@@ -6121,8 +6213,8 @@
       <c r="AA4" s="19"/>
       <c r="AB4" s="19"/>
     </row>
-    <row r="5" spans="1:28" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="55" t="s">
+    <row r="5" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>261</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -6150,10 +6242,10 @@
         <v>54</v>
       </c>
       <c r="J5" s="22">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="K5" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA2-2.1</v>
       </c>
       <c r="L5" s="23">
@@ -6177,7 +6269,7 @@
       <c r="R5" s="25">
         <v>40</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="19" t="s">
         <v>56</v>
       </c>
       <c r="T5" s="19"/>
@@ -6204,8 +6296,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1">
-      <c r="A6" s="54" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6236,7 +6328,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA2-2.2</v>
       </c>
       <c r="L6" s="11">
@@ -6291,8 +6383,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1">
-      <c r="A7" s="54" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -6323,7 +6415,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA2-2.3</v>
       </c>
       <c r="L7" s="11">
@@ -6370,8 +6462,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1">
-      <c r="A8" s="57" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -6399,10 +6491,10 @@
         <v>69</v>
       </c>
       <c r="J8" s="31">
-        <v>3.1</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="K8" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA3-3.1</v>
       </c>
       <c r="L8" s="31">
@@ -6447,8 +6539,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1">
-      <c r="A9" s="54" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -6479,7 +6571,7 @@
         <v>75</v>
       </c>
       <c r="K9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>IA3-3.2a</v>
       </c>
       <c r="L9" s="11">
@@ -6532,8 +6624,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1">
-      <c r="A10" s="54" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -6564,7 +6656,7 @@
         <v>79</v>
       </c>
       <c r="K10" s="10" t="str">
-        <f t="shared" ref="K10:K53" si="1">_xlfn.CONCAT(H10,"-",J10)</f>
+        <f t="shared" ref="K10:K53" si="3">_xlfn.CONCAT(H10,"-",J10)</f>
         <v>IA3-3.2b</v>
       </c>
       <c r="L10" s="11">
@@ -6617,8 +6709,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1">
-      <c r="A11" s="54" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -6646,10 +6738,10 @@
         <v>69</v>
       </c>
       <c r="J11" s="10">
-        <v>3.3</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>IA3-3.3</v>
       </c>
       <c r="L11" s="11">
@@ -6704,8 +6796,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1">
-      <c r="A12" s="54" t="s">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -6736,7 +6828,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>IA4-4.1</v>
       </c>
       <c r="L12" s="11">
@@ -6771,8 +6863,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1">
-      <c r="A13" s="54" t="s">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -6803,7 +6895,7 @@
         <v>94</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>IA4-4.2a</v>
       </c>
       <c r="L13" s="11">
@@ -6838,8 +6930,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1">
-      <c r="A14" s="54" t="s">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -6870,7 +6962,7 @@
         <v>101</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>IA4-4.2b</v>
       </c>
       <c r="L14" s="11">
@@ -6907,8 +6999,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1">
-      <c r="A15" s="54" t="s">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6939,7 +7031,7 @@
         <v>106</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>IA4-4.3a</v>
       </c>
       <c r="L15" s="11">
@@ -6974,8 +7066,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1">
-      <c r="A16" s="54" t="s">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7006,7 +7098,7 @@
         <v>112</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>IA4-4.3b</v>
       </c>
       <c r="L16" s="11">
@@ -7041,8 +7133,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1">
-      <c r="A17" s="54" t="s">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7073,7 +7165,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA1-1.1</v>
       </c>
       <c r="L17" s="11">
@@ -7116,8 +7208,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1">
-      <c r="A18" s="54" t="s">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -7148,7 +7240,7 @@
         <v>1.2</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA1-1.2</v>
       </c>
       <c r="L18" s="11">
@@ -7203,8 +7295,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1">
-      <c r="A19" s="54" t="s">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7235,7 +7327,7 @@
         <v>1.3</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA1-1.3</v>
       </c>
       <c r="L19" s="11">
@@ -7286,8 +7378,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="58" t="s">
+    <row r="20" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B20" s="36" t="s">
@@ -7315,10 +7407,10 @@
         <v>132</v>
       </c>
       <c r="J20" s="40">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="K20" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA2-2.1</v>
       </c>
       <c r="L20" s="41">
@@ -7334,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="42">
-        <v>1080</v>
+        <v>2000</v>
       </c>
       <c r="Q20" s="43">
         <v>540</v>
@@ -7357,8 +7449,8 @@
       <c r="AA20" s="38"/>
       <c r="AB20" s="38"/>
     </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1">
-      <c r="A21" s="54" t="s">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -7389,7 +7481,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA2-2.2</v>
       </c>
       <c r="L21" s="11">
@@ -7432,8 +7524,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1">
-      <c r="A22" s="54" t="s">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7464,7 +7556,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA2-2.3</v>
       </c>
       <c r="L22" s="11">
@@ -7507,8 +7599,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1">
-      <c r="A23" s="54" t="s">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -7536,10 +7628,10 @@
         <v>146</v>
       </c>
       <c r="J23" s="10">
-        <v>3.1</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA3-3.1</v>
       </c>
       <c r="L23" s="11">
@@ -7580,8 +7672,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1">
-      <c r="A24" s="54" t="s">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>299</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7609,10 +7701,10 @@
         <v>146</v>
       </c>
       <c r="J24" s="10">
-        <v>3.2</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA3-3.2</v>
       </c>
       <c r="L24" s="11">
@@ -7653,8 +7745,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1">
-      <c r="A25" s="54" t="s">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7685,7 +7777,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA4-4.1</v>
       </c>
       <c r="L25" s="11">
@@ -7738,8 +7830,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1">
-      <c r="A26" s="54" t="s">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>303</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -7767,10 +7859,10 @@
         <v>156</v>
       </c>
       <c r="J26" s="10">
-        <v>4.2</v>
+        <v>4.2000000000000002</v>
       </c>
       <c r="K26" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA4-4.2</v>
       </c>
       <c r="L26" s="11">
@@ -7819,8 +7911,8 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1">
-      <c r="A27" s="54" t="s">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>305</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -7848,10 +7940,10 @@
         <v>156</v>
       </c>
       <c r="J27" s="10">
-        <v>4.3</v>
+        <v>4.2999999999999998</v>
       </c>
       <c r="K27" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA4-4.3</v>
       </c>
       <c r="L27" s="11">
@@ -7902,8 +7994,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1">
-      <c r="A28" s="54" t="s">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>307</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -7934,7 +8026,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K28" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA5-5.1</v>
       </c>
       <c r="L28" s="11">
@@ -7985,8 +8077,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1">
-      <c r="A29" s="54" t="s">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -8014,10 +8106,10 @@
         <v>168</v>
       </c>
       <c r="J29" s="10">
-        <v>5.2</v>
+        <v>5.2000000000000002</v>
       </c>
       <c r="K29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA5-5.2</v>
       </c>
       <c r="L29" s="11">
@@ -8070,8 +8162,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1">
-      <c r="A30" s="54" t="s">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -8099,10 +8191,10 @@
         <v>168</v>
       </c>
       <c r="J30" s="10">
-        <v>5.3</v>
+        <v>5.2999999999999998</v>
       </c>
       <c r="K30" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA5-5.3</v>
       </c>
       <c r="L30" s="11">
@@ -8153,8 +8245,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="55" t="s">
+    <row r="31" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="18" t="s">
         <v>312</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -8182,10 +8274,10 @@
         <v>180</v>
       </c>
       <c r="J31" s="22">
-        <v>6.1</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA6-6.1</v>
       </c>
       <c r="L31" s="23">
@@ -8222,51 +8314,51 @@
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
     </row>
-    <row r="32" spans="1:28" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="59" t="s">
+    <row r="32" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="I32" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="J32" s="50">
-        <v>7.1</v>
-      </c>
-      <c r="K32" s="50" t="str">
-        <f t="shared" si="1"/>
+      <c r="J32" s="49">
+        <v>7.0999999999999996</v>
+      </c>
+      <c r="K32" s="49" t="str">
+        <f t="shared" si="3"/>
         <v>OA7-7.1</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="50">
         <v>31</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="52" t="s">
+      <c r="N32" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="O32" s="52" t="b">
+      <c r="O32" s="51" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="13">
@@ -8278,29 +8370,29 @@
       <c r="R32" s="15">
         <v>3</v>
       </c>
-      <c r="S32" s="47" t="s">
+      <c r="S32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T32" s="47"/>
-      <c r="U32" s="48">
-        <v>1</v>
-      </c>
-      <c r="V32" s="48">
-        <v>1</v>
-      </c>
-      <c r="W32" s="48">
-        <v>1</v>
-      </c>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="47">
+      <c r="T32" s="46"/>
+      <c r="U32" s="47">
+        <v>1</v>
+      </c>
+      <c r="V32" s="47">
+        <v>1</v>
+      </c>
+      <c r="W32" s="47">
+        <v>1</v>
+      </c>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="46">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1">
-      <c r="A33" s="54" t="s">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -8328,10 +8420,10 @@
         <v>187</v>
       </c>
       <c r="J33" s="10">
-        <v>7.2</v>
+        <v>7.2000000000000002</v>
       </c>
       <c r="K33" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA7-7.2</v>
       </c>
       <c r="L33" s="11">
@@ -8382,8 +8474,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1">
-      <c r="A34" s="54" t="s">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>319</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -8411,10 +8503,10 @@
         <v>187</v>
       </c>
       <c r="J34" s="10">
-        <v>7.3</v>
+        <v>7.2999999999999998</v>
       </c>
       <c r="K34" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA7-7.3</v>
       </c>
       <c r="L34" s="11">
@@ -8463,8 +8555,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15" customHeight="1">
-      <c r="A35" s="54" t="s">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -8492,10 +8584,10 @@
         <v>200</v>
       </c>
       <c r="J35" s="10">
-        <v>8.1</v>
+        <v>8.0999999999999996</v>
       </c>
       <c r="K35" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA8-8.1</v>
       </c>
       <c r="L35" s="11">
@@ -8546,8 +8638,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1">
-      <c r="A36" s="54" t="s">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -8576,7 +8668,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="K36" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA8-8.2</v>
       </c>
       <c r="L36" s="11">
@@ -8629,8 +8721,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15" customHeight="1">
-      <c r="A37" s="54" t="s">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -8658,10 +8750,10 @@
         <v>209</v>
       </c>
       <c r="J37" s="10">
-        <v>9.1</v>
+        <v>9.0999999999999996</v>
       </c>
       <c r="K37" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA9-9.1</v>
       </c>
       <c r="L37" s="11">
@@ -8714,8 +8806,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1">
-      <c r="A38" s="54" t="s">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -8746,7 +8838,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="K38" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA9-9.2</v>
       </c>
       <c r="L38" s="11">
@@ -8799,8 +8891,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15" customHeight="1">
-      <c r="A39" s="54" t="s">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -8831,7 +8923,7 @@
         <v>10.1</v>
       </c>
       <c r="K39" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA10-10.1</v>
       </c>
       <c r="L39" s="11">
@@ -8876,8 +8968,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15" customHeight="1">
-      <c r="A40" s="54" t="s">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -8908,7 +9000,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="K40" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA10-10.2</v>
       </c>
       <c r="L40" s="11">
@@ -8953,8 +9045,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15" customHeight="1">
-      <c r="A41" s="54" t="s">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>333</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -8985,7 +9077,7 @@
         <v>11.1</v>
       </c>
       <c r="K41" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA11-11.1</v>
       </c>
       <c r="L41" s="11">
@@ -9032,8 +9124,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15" customHeight="1">
-      <c r="A42" s="54" t="s">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>335</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -9061,10 +9153,10 @@
         <v>225</v>
       </c>
       <c r="J42" s="10">
-        <v>11.2</v>
+        <v>11.199999999999999</v>
       </c>
       <c r="K42" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA11-11.2</v>
       </c>
       <c r="L42" s="11">
@@ -9111,8 +9203,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15" customHeight="1">
-      <c r="A43" s="54" t="s">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -9143,7 +9235,7 @@
         <v>12.1</v>
       </c>
       <c r="K43" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA12-12.1</v>
       </c>
       <c r="L43" s="11">
@@ -9196,8 +9288,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="A44" s="54" t="s">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="5" t="s">
         <v>339</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -9225,10 +9317,10 @@
         <v>234</v>
       </c>
       <c r="J44" s="10">
-        <v>12.2</v>
+        <v>12.199999999999999</v>
       </c>
       <c r="K44" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA12-12.2</v>
       </c>
       <c r="L44" s="11">
@@ -9281,8 +9373,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15" customHeight="1">
-      <c r="A45" s="54" t="s">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>341</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -9313,7 +9405,7 @@
         <v>13.1</v>
       </c>
       <c r="K45" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA13-13.1</v>
       </c>
       <c r="L45" s="11">
@@ -9364,8 +9456,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15" customHeight="1">
-      <c r="A46" s="54" t="s">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -9393,10 +9485,10 @@
         <v>242</v>
       </c>
       <c r="J46" s="10">
-        <v>13.2</v>
+        <v>13.199999999999999</v>
       </c>
       <c r="K46" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA13-13.2</v>
       </c>
       <c r="L46" s="11">
@@ -9449,8 +9541,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15" customHeight="1">
-      <c r="A47" s="54" t="s">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>345</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -9478,10 +9570,10 @@
         <v>242</v>
       </c>
       <c r="J47" s="10">
-        <v>13.3</v>
+        <v>13.300000000000001</v>
       </c>
       <c r="K47" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA13-13.3</v>
       </c>
       <c r="L47" s="11">
@@ -9497,15 +9589,15 @@
         <v>1</v>
       </c>
       <c r="P47" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="14">
         <v>15</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="R47" s="15">
         <v>10</v>
       </c>
-      <c r="R47" s="15">
-        <v>5</v>
-      </c>
-      <c r="S47" s="53" t="s">
+      <c r="S47" s="6" t="s">
         <v>56</v>
       </c>
       <c r="T47" s="27" t="s">
@@ -9534,8 +9626,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15" customHeight="1">
-      <c r="A48" s="54" t="s">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -9566,7 +9658,7 @@
         <v>14.1</v>
       </c>
       <c r="K48" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA14-14.1</v>
       </c>
       <c r="L48" s="11">
@@ -9609,11 +9701,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15" customHeight="1">
-      <c r="A49" s="60" t="s">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="52" t="s">
         <v>350</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -9638,7 +9730,7 @@
         <v>15.1</v>
       </c>
       <c r="K49" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA15-15.1</v>
       </c>
       <c r="L49" s="11">
@@ -9671,11 +9763,11 @@
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
     </row>
-    <row r="50" spans="1:28" ht="15" customHeight="1">
-      <c r="A50" s="60" t="s">
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="52" t="s">
         <v>355</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -9697,10 +9789,10 @@
         <v>352</v>
       </c>
       <c r="J50" s="10">
-        <v>15.2</v>
+        <v>15.199999999999999</v>
       </c>
       <c r="K50" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA15-15.2</v>
       </c>
       <c r="L50" s="11">
@@ -9716,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="42">
-        <v>542</v>
+        <v>2000</v>
       </c>
       <c r="Q50" s="43">
         <v>480</v>
@@ -9739,11 +9831,11 @@
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
     </row>
-    <row r="51" spans="1:28" ht="15" customHeight="1">
-      <c r="A51" s="60" t="s">
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="52" t="s">
         <v>358</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -9765,10 +9857,10 @@
         <v>352</v>
       </c>
       <c r="J51" s="10">
-        <v>15.3</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="K51" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA15-15.3</v>
       </c>
       <c r="L51" s="11">
@@ -9801,11 +9893,11 @@
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
     </row>
-    <row r="52" spans="1:28" ht="15" customHeight="1">
-      <c r="A52" s="60" t="s">
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="52" t="s">
         <v>361</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -9830,7 +9922,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K52" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA16-16.1</v>
       </c>
       <c r="L52" s="11">
@@ -9878,11 +9970,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15" customHeight="1">
-      <c r="A53" s="60" t="s">
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="52" t="s">
         <v>366</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -9904,10 +9996,10 @@
         <v>363</v>
       </c>
       <c r="J53" s="10">
-        <v>16.2</v>
+        <v>16.199999999999999</v>
       </c>
       <c r="K53" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OA16-16.2</v>
       </c>
       <c r="L53" s="11">
@@ -9955,17 +10047,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15" customHeight="1"/>
-    <row r="55" spans="1:28" ht="15" customHeight="1"/>
-    <row r="56" spans="1:28" ht="15" customHeight="1"/>
-    <row r="57" spans="1:28" ht="15" customHeight="1"/>
-    <row r="58" spans="1:28" ht="15" customHeight="1"/>
-    <row r="59" spans="1:28" ht="15" customHeight="1"/>
-    <row r="60" spans="1:28" ht="15" customHeight="1"/>
-    <row r="61" spans="1:28" ht="15" customHeight="1"/>
-    <row r="62" spans="1:28" ht="15" customHeight="1"/>
-    <row r="63" spans="1:28" ht="15" customHeight="1"/>
-    <row r="64" spans="1:28" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
+    <row r="62" ht="15" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
+    <row r="64" ht="15" customHeight="1"/>
     <row r="65" ht="15" customHeight="1"/>
     <row r="66" ht="15" customHeight="1"/>
     <row r="67" ht="15" customHeight="1"/>
@@ -9988,69 +10080,221 @@
     <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="D1:AB48" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="U2:AB48">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U53:V53">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U52:V52">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W52 X52 Y49 Y50 Y51 Y52 Z49 Z50 Z51 Z52 AA49 AA50 AA51 AA52">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W53">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U49 U50 U51 V49 V50 V51 W49 W50 W51 X49 X50 X51">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X53 Y53 Z53 AA53">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O18 O21:O48">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O50">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O49">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <autoFilter ref="D1:AB48"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{00980033-007E-4C45-A1A9-0020002600B1}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{00A80033-0061-4AC9-8389-00E700C7001F}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{00E7008D-00C5-47F7-92DE-005F003E0009}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{002600A9-0079-4F75-840B-007F001100A2}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{0067007C-003A-4E48-836D-000700CA009F}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X53 Y53 Z53 AA53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{00CE0073-0013-4DC5-88BA-00E000640001}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U49 U50 U51 V49 V50 V51 W49 W50 W51 X49 X50 X51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{00390030-00A7-4797-AC91-001A00D20051}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00C70054-00CD-4628-B93A-002400AF00B8}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W52 X52 Y49 Y50 Y51 Y52 Z49 Z50 Z51 Z52 AA49 AA50 AA51 AA52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00970047-0027-4696-A7B0-00AB005B0097}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U52:V52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{008B001F-00D5-483A-88B6-00620027008B}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U53:V53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00990077-0003-4BE1-BF02-00D3003900A7}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U2:AB48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000000A1-001C-4D68-87C6-00C7009B00B2}">
+            <xm:f>TRUE</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O2:O18 O21:O48</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>